--- a/ontology_tables/country_ontology.xlsx
+++ b/ontology_tables/country_ontology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/q436477/Projekte/knowledge_agents/ontology/ontology_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA32D7F-488F-D04F-9E6D-C99ACCD6C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942CC50-C95E-4F4A-9393-DD22990DCFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1280" yWindow="-21100" windowWidth="35020" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1231">
   <si>
     <t>type</t>
   </si>
@@ -3723,6 +3723,9 @@
   </si>
   <si>
     <t>Stadtname</t>
+  </si>
+  <si>
+    <t>country_name</t>
   </si>
 </sst>
 </file>
@@ -4177,19 +4180,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:S276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="16.5" style="1" customWidth="1"/>
-    <col min="15" max="18" width="16.5" customWidth="1"/>
+    <col min="1" max="15" width="16.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4233,19 +4236,22 @@
         <v>1224</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4269,7 +4275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -4285,12 +4291,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4298,12 +4304,12 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4331,11 +4337,11 @@
       <c r="N12" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4414,11 +4420,11 @@
       <c r="M16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -4443,11 +4449,11 @@
       <c r="M17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -4472,11 +4478,11 @@
       <c r="M18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -4509,11 +4515,11 @@
       <c r="N21" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -4527,7 +4533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -4569,11 +4575,11 @@
       <c r="M25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -4592,11 +4598,11 @@
       <c r="M26" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -4610,20 +4616,23 @@
         <v>63</v>
       </c>
       <c r="K28"/>
-      <c r="O28" t="s">
+      <c r="O28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s">
         <v>461</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>462</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>20</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -4637,20 +4646,23 @@
         <v>311</v>
       </c>
       <c r="K29"/>
-      <c r="O29" t="s">
+      <c r="O29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" t="s">
         <v>463</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>464</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>784</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -4664,20 +4676,23 @@
         <v>65</v>
       </c>
       <c r="K30"/>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s">
         <v>465</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>466</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4691,20 +4706,23 @@
         <v>312</v>
       </c>
       <c r="K31"/>
-      <c r="O31" t="s">
+      <c r="O31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s">
         <v>467</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>468</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>28</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -4718,20 +4736,23 @@
         <v>67</v>
       </c>
       <c r="K32"/>
-      <c r="O32" t="s">
+      <c r="O32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="s">
         <v>469</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>470</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>660</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -4745,20 +4766,23 @@
         <v>313</v>
       </c>
       <c r="K33"/>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s">
         <v>471</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>472</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>8</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -4772,20 +4796,23 @@
         <v>314</v>
       </c>
       <c r="K34"/>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="s">
         <v>473</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>474</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>51</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -4799,20 +4826,23 @@
         <v>70</v>
       </c>
       <c r="K35"/>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s">
         <v>475</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>476</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>24</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -4826,20 +4856,23 @@
         <v>315</v>
       </c>
       <c r="K36"/>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s">
         <v>477</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>478</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>10</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -4853,20 +4886,23 @@
         <v>316</v>
       </c>
       <c r="K37"/>
-      <c r="O37" t="s">
+      <c r="O37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="s">
         <v>479</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>480</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>32</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -4880,20 +4916,23 @@
         <v>317</v>
       </c>
       <c r="K38"/>
-      <c r="O38" t="s">
+      <c r="O38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="s">
         <v>481</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>482</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>16</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -4907,20 +4946,23 @@
         <v>318</v>
       </c>
       <c r="K39"/>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" t="s">
         <v>483</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>484</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>40</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -4934,20 +4976,23 @@
         <v>319</v>
       </c>
       <c r="K40"/>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P40" t="s">
         <v>485</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>486</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>36</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
@@ -4961,20 +5006,23 @@
         <v>76</v>
       </c>
       <c r="K41"/>
-      <c r="O41" t="s">
+      <c r="O41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s">
         <v>487</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>488</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>533</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -4988,20 +5036,23 @@
         <v>77</v>
       </c>
       <c r="K42"/>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s">
         <v>489</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>490</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>248</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -5015,20 +5066,23 @@
         <v>320</v>
       </c>
       <c r="K43"/>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="s">
         <v>491</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>492</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>31</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -5042,20 +5096,23 @@
         <v>321</v>
       </c>
       <c r="K44"/>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s">
         <v>493</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>494</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>70</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>30</v>
       </c>
@@ -5069,20 +5126,23 @@
         <v>80</v>
       </c>
       <c r="K45"/>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="s">
         <v>495</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>496</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>52</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
@@ -5096,20 +5156,23 @@
         <v>322</v>
       </c>
       <c r="K46"/>
-      <c r="O46" t="s">
+      <c r="O46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="s">
         <v>497</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>498</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>50</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
@@ -5123,20 +5186,23 @@
         <v>323</v>
       </c>
       <c r="K47"/>
-      <c r="O47" t="s">
+      <c r="O47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P47" t="s">
         <v>499</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>500</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>56</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -5150,20 +5216,23 @@
         <v>83</v>
       </c>
       <c r="K48"/>
-      <c r="O48" t="s">
+      <c r="O48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" t="s">
         <v>501</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>502</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>854</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -5177,20 +5246,23 @@
         <v>324</v>
       </c>
       <c r="K49"/>
-      <c r="O49" t="s">
+      <c r="O49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="s">
         <v>503</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>504</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>100</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
@@ -5204,20 +5276,23 @@
         <v>85</v>
       </c>
       <c r="K50"/>
-      <c r="O50" t="s">
+      <c r="O50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="s">
         <v>505</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>506</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>48</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
@@ -5231,20 +5306,23 @@
         <v>86</v>
       </c>
       <c r="K51"/>
-      <c r="O51" t="s">
+      <c r="O51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P51" t="s">
         <v>507</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>508</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>108</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
@@ -5258,20 +5336,23 @@
         <v>87</v>
       </c>
       <c r="K52"/>
-      <c r="O52" t="s">
+      <c r="O52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s">
         <v>509</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>510</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>204</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -5285,20 +5366,23 @@
         <v>325</v>
       </c>
       <c r="K53"/>
-      <c r="O53" t="s">
+      <c r="O53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53" t="s">
         <v>511</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>512</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>652</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -5312,20 +5396,23 @@
         <v>89</v>
       </c>
       <c r="K54"/>
-      <c r="O54" t="s">
+      <c r="O54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" t="s">
         <v>513</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>514</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>60</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
@@ -5339,20 +5426,23 @@
         <v>90</v>
       </c>
       <c r="K55"/>
-      <c r="O55" t="s">
+      <c r="O55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="s">
         <v>515</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>516</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>96</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>30</v>
       </c>
@@ -5366,20 +5456,23 @@
         <v>326</v>
       </c>
       <c r="K56"/>
-      <c r="O56" t="s">
+      <c r="O56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="s">
         <v>517</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>518</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>68</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
@@ -5393,20 +5486,23 @@
         <v>327</v>
       </c>
       <c r="K57"/>
-      <c r="O57" t="s">
+      <c r="O57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="s">
         <v>519</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>520</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>535</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -5420,20 +5516,23 @@
         <v>328</v>
       </c>
       <c r="K58"/>
-      <c r="O58" t="s">
+      <c r="O58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s">
         <v>521</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>522</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>76</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
@@ -5447,20 +5546,23 @@
         <v>329</v>
       </c>
       <c r="K59"/>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" t="s">
         <v>523</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>524</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>44</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -5474,20 +5576,23 @@
         <v>95</v>
       </c>
       <c r="K60"/>
-      <c r="O60" t="s">
+      <c r="O60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P60" t="s">
         <v>525</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>526</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>64</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -5501,20 +5606,23 @@
         <v>330</v>
       </c>
       <c r="K61"/>
-      <c r="O61" t="s">
+      <c r="O61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P61" t="s">
         <v>527</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>528</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>74</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -5528,20 +5636,23 @@
         <v>97</v>
       </c>
       <c r="K62"/>
-      <c r="O62" t="s">
+      <c r="O62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P62" t="s">
         <v>529</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>530</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>72</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>30</v>
       </c>
@@ -5555,20 +5666,23 @@
         <v>98</v>
       </c>
       <c r="K63"/>
-      <c r="O63" t="s">
+      <c r="O63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P63" t="s">
         <v>531</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>532</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>112</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>30</v>
       </c>
@@ -5582,20 +5696,23 @@
         <v>99</v>
       </c>
       <c r="K64"/>
-      <c r="O64" t="s">
+      <c r="O64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P64" t="s">
         <v>533</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>534</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>84</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>30</v>
       </c>
@@ -5609,20 +5726,23 @@
         <v>331</v>
       </c>
       <c r="K65"/>
-      <c r="O65" t="s">
+      <c r="O65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" t="s">
         <v>535</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>536</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>124</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>30</v>
       </c>
@@ -5636,20 +5756,23 @@
         <v>332</v>
       </c>
       <c r="K66"/>
-      <c r="O66" t="s">
+      <c r="O66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P66" t="s">
         <v>537</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>538</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>166</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
@@ -5663,20 +5786,23 @@
         <v>333</v>
       </c>
       <c r="K67"/>
-      <c r="O67" t="s">
+      <c r="O67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P67" t="s">
         <v>539</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>540</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>180</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>30</v>
       </c>
@@ -5690,20 +5816,23 @@
         <v>334</v>
       </c>
       <c r="K68"/>
-      <c r="O68" t="s">
+      <c r="O68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P68" t="s">
         <v>541</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>542</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>140</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>30</v>
       </c>
@@ -5717,20 +5846,23 @@
         <v>335</v>
       </c>
       <c r="K69"/>
-      <c r="O69" t="s">
+      <c r="O69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="s">
         <v>543</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>544</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>178</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>30</v>
       </c>
@@ -5744,20 +5876,23 @@
         <v>336</v>
       </c>
       <c r="K70"/>
-      <c r="O70" t="s">
+      <c r="O70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P70" t="s">
         <v>545</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>546</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>756</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>30</v>
       </c>
@@ -5771,20 +5906,23 @@
         <v>106</v>
       </c>
       <c r="K71"/>
-      <c r="O71" t="s">
+      <c r="O71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P71" t="s">
         <v>547</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>548</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>384</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
@@ -5798,20 +5936,23 @@
         <v>337</v>
       </c>
       <c r="K72"/>
-      <c r="O72" t="s">
+      <c r="O72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P72" t="s">
         <v>549</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>550</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>184</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>30</v>
       </c>
@@ -5825,20 +5966,23 @@
         <v>108</v>
       </c>
       <c r="K73"/>
-      <c r="O73" t="s">
+      <c r="O73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P73" t="s">
         <v>551</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>552</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>152</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -5852,20 +5996,23 @@
         <v>338</v>
       </c>
       <c r="K74"/>
-      <c r="O74" t="s">
+      <c r="O74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P74" t="s">
         <v>553</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>554</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>120</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -5879,20 +6026,23 @@
         <v>339</v>
       </c>
       <c r="K75"/>
-      <c r="O75" t="s">
+      <c r="O75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P75" t="s">
         <v>555</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>556</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>156</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
@@ -5906,20 +6056,23 @@
         <v>340</v>
       </c>
       <c r="K76"/>
-      <c r="O76" t="s">
+      <c r="O76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P76" t="s">
         <v>557</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>558</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>170</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>30</v>
       </c>
@@ -5933,20 +6086,23 @@
         <v>112</v>
       </c>
       <c r="K77"/>
-      <c r="O77" t="s">
+      <c r="O77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P77" t="s">
         <v>559</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>560</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>188</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>30</v>
       </c>
@@ -5960,20 +6116,23 @@
         <v>341</v>
       </c>
       <c r="K78"/>
-      <c r="O78" t="s">
+      <c r="O78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P78" t="s">
         <v>561</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>562</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>192</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>30</v>
       </c>
@@ -5987,20 +6146,23 @@
         <v>342</v>
       </c>
       <c r="K79"/>
-      <c r="O79" t="s">
+      <c r="O79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P79" t="s">
         <v>563</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>564</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>132</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>30</v>
       </c>
@@ -6014,20 +6176,23 @@
         <v>115</v>
       </c>
       <c r="K80"/>
-      <c r="O80" t="s">
+      <c r="O80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P80" t="s">
         <v>565</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>566</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>531</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -6041,20 +6206,23 @@
         <v>343</v>
       </c>
       <c r="K81"/>
-      <c r="O81" t="s">
+      <c r="O81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P81" t="s">
         <v>567</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>568</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>162</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
@@ -6068,20 +6236,23 @@
         <v>344</v>
       </c>
       <c r="K82"/>
-      <c r="O82" t="s">
+      <c r="O82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P82" t="s">
         <v>569</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>570</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>196</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
@@ -6095,20 +6266,23 @@
         <v>345</v>
       </c>
       <c r="K83"/>
-      <c r="O83" t="s">
+      <c r="O83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P83" t="s">
         <v>571</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>572</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>203</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
@@ -6122,20 +6296,23 @@
         <v>346</v>
       </c>
       <c r="K84"/>
-      <c r="O84" t="s">
+      <c r="O84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P84" t="s">
         <v>41</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>46</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>276</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
@@ -6149,20 +6326,23 @@
         <v>347</v>
       </c>
       <c r="K85"/>
-      <c r="O85" t="s">
+      <c r="O85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P85" t="s">
         <v>573</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>574</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>262</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
@@ -6176,20 +6356,23 @@
         <v>348</v>
       </c>
       <c r="K86"/>
-      <c r="O86" t="s">
+      <c r="O86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P86" t="s">
         <v>575</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>576</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>208</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
@@ -6203,20 +6386,23 @@
         <v>121</v>
       </c>
       <c r="K87"/>
-      <c r="O87" t="s">
+      <c r="O87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P87" t="s">
         <v>577</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>578</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>212</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>30</v>
       </c>
@@ -6230,20 +6416,23 @@
         <v>349</v>
       </c>
       <c r="K88"/>
-      <c r="O88" t="s">
+      <c r="O88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P88" t="s">
         <v>579</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>580</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>214</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>30</v>
       </c>
@@ -6257,20 +6446,23 @@
         <v>350</v>
       </c>
       <c r="K89"/>
-      <c r="O89" t="s">
+      <c r="O89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P89" t="s">
         <v>581</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>582</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>12</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>30</v>
       </c>
@@ -6284,20 +6476,23 @@
         <v>124</v>
       </c>
       <c r="K90"/>
-      <c r="O90" t="s">
+      <c r="O90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P90" t="s">
         <v>583</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>584</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>218</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -6311,20 +6506,23 @@
         <v>351</v>
       </c>
       <c r="K91"/>
-      <c r="O91" t="s">
+      <c r="O91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P91" t="s">
         <v>585</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>586</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>233</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -6338,20 +6536,23 @@
         <v>352</v>
       </c>
       <c r="K92"/>
-      <c r="O92" t="s">
+      <c r="O92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P92" t="s">
         <v>587</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>588</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>818</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -6365,20 +6566,23 @@
         <v>353</v>
       </c>
       <c r="K93"/>
-      <c r="O93" t="s">
+      <c r="O93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P93" t="s">
         <v>589</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>590</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>732</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -6392,20 +6596,23 @@
         <v>128</v>
       </c>
       <c r="K94"/>
-      <c r="O94" t="s">
+      <c r="O94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P94" t="s">
         <v>591</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>592</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>232</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -6419,20 +6626,23 @@
         <v>354</v>
       </c>
       <c r="K95"/>
-      <c r="O95" t="s">
+      <c r="O95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P95" t="s">
         <v>593</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>594</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>724</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -6446,20 +6656,23 @@
         <v>355</v>
       </c>
       <c r="K96"/>
-      <c r="O96" t="s">
+      <c r="O96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P96" t="s">
         <v>595</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>596</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>231</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -6473,20 +6686,23 @@
         <v>356</v>
       </c>
       <c r="K97"/>
-      <c r="O97" t="s">
+      <c r="O97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P97" t="s">
         <v>597</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>598</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>246</v>
       </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>30</v>
       </c>
@@ -6500,20 +6716,23 @@
         <v>357</v>
       </c>
       <c r="K98"/>
-      <c r="O98" t="s">
+      <c r="O98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P98" t="s">
         <v>599</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>600</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>242</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>30</v>
       </c>
@@ -6527,20 +6746,23 @@
         <v>358</v>
       </c>
       <c r="K99"/>
-      <c r="O99" t="s">
+      <c r="O99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P99" t="s">
         <v>601</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>602</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>238</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>30</v>
       </c>
@@ -6554,20 +6776,23 @@
         <v>359</v>
       </c>
       <c r="K100"/>
-      <c r="O100" t="s">
+      <c r="O100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P100" t="s">
         <v>603</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>604</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>583</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>30</v>
       </c>
@@ -6581,20 +6806,23 @@
         <v>360</v>
       </c>
       <c r="K101"/>
-      <c r="O101" t="s">
+      <c r="O101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P101" t="s">
         <v>605</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>606</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>234</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>30</v>
       </c>
@@ -6608,20 +6836,23 @@
         <v>361</v>
       </c>
       <c r="K102"/>
-      <c r="O102" t="s">
+      <c r="O102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P102" t="s">
         <v>607</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>608</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>250</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>30</v>
       </c>
@@ -6635,20 +6866,23 @@
         <v>362</v>
       </c>
       <c r="K103"/>
-      <c r="O103" t="s">
+      <c r="O103" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P103" t="s">
         <v>609</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>610</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>266</v>
       </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>30</v>
       </c>
@@ -6662,20 +6896,23 @@
         <v>363</v>
       </c>
       <c r="K104"/>
-      <c r="O104" t="s">
+      <c r="O104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P104" t="s">
         <v>611</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" t="s">
         <v>612</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>826</v>
       </c>
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>30</v>
       </c>
@@ -6689,20 +6926,23 @@
         <v>139</v>
       </c>
       <c r="K105"/>
-      <c r="O105" t="s">
+      <c r="O105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P105" t="s">
         <v>613</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>614</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>308</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>30</v>
       </c>
@@ -6716,20 +6956,23 @@
         <v>364</v>
       </c>
       <c r="K106"/>
-      <c r="O106" t="s">
+      <c r="O106" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P106" t="s">
         <v>615</v>
       </c>
-      <c r="P106" t="s">
+      <c r="Q106" t="s">
         <v>616</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>268</v>
       </c>
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>30</v>
       </c>
@@ -6743,20 +6986,23 @@
         <v>365</v>
       </c>
       <c r="K107"/>
-      <c r="O107" t="s">
+      <c r="O107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P107" t="s">
         <v>617</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" t="s">
         <v>618</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>254</v>
       </c>
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>30</v>
       </c>
@@ -6770,20 +7016,23 @@
         <v>142</v>
       </c>
       <c r="K108"/>
-      <c r="O108" t="s">
+      <c r="O108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P108" t="s">
         <v>619</v>
       </c>
-      <c r="P108" t="s">
+      <c r="Q108" t="s">
         <v>620</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>831</v>
       </c>
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>30</v>
       </c>
@@ -6797,20 +7046,23 @@
         <v>143</v>
       </c>
       <c r="K109"/>
-      <c r="O109" t="s">
+      <c r="O109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P109" t="s">
         <v>621</v>
       </c>
-      <c r="P109" t="s">
+      <c r="Q109" t="s">
         <v>622</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>288</v>
       </c>
-      <c r="R109" t="s">
+      <c r="S109" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>30</v>
       </c>
@@ -6824,20 +7076,23 @@
         <v>144</v>
       </c>
       <c r="K110"/>
-      <c r="O110" t="s">
+      <c r="O110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P110" t="s">
         <v>623</v>
       </c>
-      <c r="P110" t="s">
+      <c r="Q110" t="s">
         <v>624</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>292</v>
       </c>
-      <c r="R110" t="s">
+      <c r="S110" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>30</v>
       </c>
@@ -6851,20 +7106,23 @@
         <v>366</v>
       </c>
       <c r="K111"/>
-      <c r="O111" t="s">
+      <c r="O111" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P111" t="s">
         <v>625</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>626</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>304</v>
       </c>
-      <c r="R111" t="s">
+      <c r="S111" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>30</v>
       </c>
@@ -6878,20 +7136,23 @@
         <v>367</v>
       </c>
       <c r="K112"/>
-      <c r="O112" t="s">
+      <c r="O112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P112" t="s">
         <v>627</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>628</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>270</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>30</v>
       </c>
@@ -6905,20 +7166,23 @@
         <v>147</v>
       </c>
       <c r="K113"/>
-      <c r="O113" t="s">
+      <c r="O113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P113" t="s">
         <v>629</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>630</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>324</v>
       </c>
-      <c r="R113" t="s">
+      <c r="S113" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
@@ -6932,20 +7196,23 @@
         <v>148</v>
       </c>
       <c r="K114"/>
-      <c r="O114" t="s">
+      <c r="O114" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P114" t="s">
         <v>631</v>
       </c>
-      <c r="P114" t="s">
+      <c r="Q114" t="s">
         <v>632</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>312</v>
       </c>
-      <c r="R114" t="s">
+      <c r="S114" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>30</v>
       </c>
@@ -6959,20 +7226,23 @@
         <v>368</v>
       </c>
       <c r="K115"/>
-      <c r="O115" t="s">
+      <c r="O115" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P115" t="s">
         <v>633</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" t="s">
         <v>634</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>226</v>
       </c>
-      <c r="R115" t="s">
+      <c r="S115" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>30</v>
       </c>
@@ -6986,20 +7256,23 @@
         <v>369</v>
       </c>
       <c r="K116"/>
-      <c r="O116" t="s">
+      <c r="O116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P116" t="s">
         <v>635</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>636</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>300</v>
       </c>
-      <c r="R116" t="s">
+      <c r="S116" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>30</v>
       </c>
@@ -7013,20 +7286,23 @@
         <v>370</v>
       </c>
       <c r="K117"/>
-      <c r="O117" t="s">
+      <c r="O117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P117" t="s">
         <v>637</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>638</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <v>239</v>
       </c>
-      <c r="R117" t="s">
+      <c r="S117" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>30</v>
       </c>
@@ -7040,20 +7316,23 @@
         <v>152</v>
       </c>
       <c r="K118"/>
-      <c r="O118" t="s">
+      <c r="O118" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P118" t="s">
         <v>639</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>640</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <v>320</v>
       </c>
-      <c r="R118" t="s">
+      <c r="S118" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -7067,20 +7346,23 @@
         <v>153</v>
       </c>
       <c r="K119"/>
-      <c r="O119" t="s">
+      <c r="O119" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P119" t="s">
         <v>641</v>
       </c>
-      <c r="P119" t="s">
+      <c r="Q119" t="s">
         <v>642</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>316</v>
       </c>
-      <c r="R119" t="s">
+      <c r="S119" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>30</v>
       </c>
@@ -7094,20 +7376,23 @@
         <v>154</v>
       </c>
       <c r="K120"/>
-      <c r="O120" t="s">
+      <c r="O120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P120" t="s">
         <v>643</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" t="s">
         <v>644</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>624</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>30</v>
       </c>
@@ -7121,20 +7406,23 @@
         <v>155</v>
       </c>
       <c r="K121"/>
-      <c r="O121" t="s">
+      <c r="O121" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P121" t="s">
         <v>645</v>
       </c>
-      <c r="P121" t="s">
+      <c r="Q121" t="s">
         <v>646</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>328</v>
       </c>
-      <c r="R121" t="s">
+      <c r="S121" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>30</v>
       </c>
@@ -7148,20 +7436,23 @@
         <v>371</v>
       </c>
       <c r="K122"/>
-      <c r="O122" t="s">
+      <c r="O122" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P122" t="s">
         <v>647</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" t="s">
         <v>648</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>344</v>
       </c>
-      <c r="R122" t="s">
+      <c r="S122" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>30</v>
       </c>
@@ -7175,20 +7466,23 @@
         <v>372</v>
       </c>
       <c r="K123"/>
-      <c r="O123" t="s">
+      <c r="O123" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P123" t="s">
         <v>649</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>650</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>334</v>
       </c>
-      <c r="R123" t="s">
+      <c r="S123" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>30</v>
       </c>
@@ -7202,20 +7496,23 @@
         <v>158</v>
       </c>
       <c r="K124"/>
-      <c r="O124" t="s">
+      <c r="O124" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P124" t="s">
         <v>651</v>
       </c>
-      <c r="P124" t="s">
+      <c r="Q124" t="s">
         <v>652</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>340</v>
       </c>
-      <c r="R124" t="s">
+      <c r="S124" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>30</v>
       </c>
@@ -7229,20 +7526,23 @@
         <v>373</v>
       </c>
       <c r="K125"/>
-      <c r="O125" t="s">
+      <c r="O125" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P125" t="s">
         <v>653</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>654</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <v>191</v>
       </c>
-      <c r="R125" t="s">
+      <c r="S125" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>30</v>
       </c>
@@ -7256,20 +7556,23 @@
         <v>160</v>
       </c>
       <c r="K126"/>
-      <c r="O126" t="s">
+      <c r="O126" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P126" t="s">
         <v>655</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>656</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <v>332</v>
       </c>
-      <c r="R126" t="s">
+      <c r="S126" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>30</v>
       </c>
@@ -7283,20 +7586,23 @@
         <v>374</v>
       </c>
       <c r="K127"/>
-      <c r="O127" t="s">
+      <c r="O127" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P127" t="s">
         <v>657</v>
       </c>
-      <c r="P127" t="s">
+      <c r="Q127" t="s">
         <v>658</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>348</v>
       </c>
-      <c r="R127" t="s">
+      <c r="S127" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>30</v>
       </c>
@@ -7310,20 +7616,23 @@
         <v>375</v>
       </c>
       <c r="K128"/>
-      <c r="O128" t="s">
+      <c r="O128" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P128" t="s">
         <v>659</v>
       </c>
-      <c r="P128" t="s">
+      <c r="Q128" t="s">
         <v>660</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>360</v>
       </c>
-      <c r="R128" t="s">
+      <c r="S128" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>30</v>
       </c>
@@ -7337,20 +7646,23 @@
         <v>376</v>
       </c>
       <c r="K129"/>
-      <c r="O129" t="s">
+      <c r="O129" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P129" t="s">
         <v>661</v>
       </c>
-      <c r="P129" t="s">
+      <c r="Q129" t="s">
         <v>662</v>
       </c>
-      <c r="Q129">
+      <c r="R129">
         <v>372</v>
       </c>
-      <c r="R129" t="s">
+      <c r="S129" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>30</v>
       </c>
@@ -7364,20 +7676,23 @@
         <v>164</v>
       </c>
       <c r="K130"/>
-      <c r="O130" t="s">
+      <c r="O130" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P130" t="s">
         <v>663</v>
       </c>
-      <c r="P130" t="s">
+      <c r="Q130" t="s">
         <v>664</v>
       </c>
-      <c r="Q130">
+      <c r="R130">
         <v>376</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>30</v>
       </c>
@@ -7391,20 +7706,23 @@
         <v>165</v>
       </c>
       <c r="K131"/>
-      <c r="O131" t="s">
+      <c r="O131" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P131" t="s">
         <v>665</v>
       </c>
-      <c r="P131" t="s">
+      <c r="Q131" t="s">
         <v>666</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <v>833</v>
       </c>
-      <c r="R131" t="s">
+      <c r="S131" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>30</v>
       </c>
@@ -7418,20 +7736,23 @@
         <v>377</v>
       </c>
       <c r="K132"/>
-      <c r="O132" t="s">
+      <c r="O132" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P132" t="s">
         <v>667</v>
       </c>
-      <c r="P132" t="s">
+      <c r="Q132" t="s">
         <v>668</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <v>356</v>
       </c>
-      <c r="R132" t="s">
+      <c r="S132" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>30</v>
       </c>
@@ -7445,20 +7766,23 @@
         <v>378</v>
       </c>
       <c r="K133"/>
-      <c r="O133" t="s">
+      <c r="O133" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P133" t="s">
         <v>669</v>
       </c>
-      <c r="P133" t="s">
+      <c r="Q133" t="s">
         <v>670</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <v>86</v>
       </c>
-      <c r="R133" t="s">
+      <c r="S133" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -7472,20 +7796,23 @@
         <v>379</v>
       </c>
       <c r="K134"/>
-      <c r="O134" t="s">
+      <c r="O134" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P134" t="s">
         <v>671</v>
       </c>
-      <c r="P134" t="s">
+      <c r="Q134" t="s">
         <v>672</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <v>368</v>
       </c>
-      <c r="R134" t="s">
+      <c r="S134" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>30</v>
       </c>
@@ -7499,20 +7826,23 @@
         <v>169</v>
       </c>
       <c r="K135"/>
-      <c r="O135" t="s">
+      <c r="O135" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P135" t="s">
         <v>673</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" t="s">
         <v>674</v>
       </c>
-      <c r="Q135">
+      <c r="R135">
         <v>364</v>
       </c>
-      <c r="R135" t="s">
+      <c r="S135" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>30</v>
       </c>
@@ -7526,20 +7856,23 @@
         <v>380</v>
       </c>
       <c r="K136"/>
-      <c r="O136" t="s">
+      <c r="O136" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P136" t="s">
         <v>675</v>
       </c>
-      <c r="P136" t="s">
+      <c r="Q136" t="s">
         <v>676</v>
       </c>
-      <c r="Q136">
+      <c r="R136">
         <v>352</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -7553,20 +7886,23 @@
         <v>381</v>
       </c>
       <c r="K137"/>
-      <c r="O137" t="s">
+      <c r="O137" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P137" t="s">
         <v>677</v>
       </c>
-      <c r="P137" t="s">
+      <c r="Q137" t="s">
         <v>678</v>
       </c>
-      <c r="Q137">
+      <c r="R137">
         <v>380</v>
       </c>
-      <c r="R137" t="s">
+      <c r="S137" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>30</v>
       </c>
@@ -7580,20 +7916,23 @@
         <v>172</v>
       </c>
       <c r="K138"/>
-      <c r="O138" t="s">
+      <c r="O138" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P138" t="s">
         <v>679</v>
       </c>
-      <c r="P138" t="s">
+      <c r="Q138" t="s">
         <v>680</v>
       </c>
-      <c r="Q138">
+      <c r="R138">
         <v>832</v>
       </c>
-      <c r="R138" t="s">
+      <c r="S138" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>30</v>
       </c>
@@ -7607,20 +7946,23 @@
         <v>382</v>
       </c>
       <c r="K139"/>
-      <c r="O139" t="s">
+      <c r="O139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P139" t="s">
         <v>681</v>
       </c>
-      <c r="P139" t="s">
+      <c r="Q139" t="s">
         <v>682</v>
       </c>
-      <c r="Q139">
+      <c r="R139">
         <v>388</v>
       </c>
-      <c r="R139" t="s">
+      <c r="S139" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>30</v>
       </c>
@@ -7634,20 +7976,23 @@
         <v>383</v>
       </c>
       <c r="K140"/>
-      <c r="O140" t="s">
+      <c r="O140" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P140" t="s">
         <v>683</v>
       </c>
-      <c r="P140" t="s">
+      <c r="Q140" t="s">
         <v>684</v>
       </c>
-      <c r="Q140">
+      <c r="R140">
         <v>400</v>
       </c>
-      <c r="R140" t="s">
+      <c r="S140" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>30</v>
       </c>
@@ -7661,20 +8006,23 @@
         <v>175</v>
       </c>
       <c r="K141"/>
-      <c r="O141" t="s">
+      <c r="O141" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P141" t="s">
         <v>685</v>
       </c>
-      <c r="P141" t="s">
+      <c r="Q141" t="s">
         <v>686</v>
       </c>
-      <c r="Q141">
+      <c r="R141">
         <v>392</v>
       </c>
-      <c r="R141" t="s">
+      <c r="S141" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>30</v>
       </c>
@@ -7688,20 +8036,23 @@
         <v>384</v>
       </c>
       <c r="K142"/>
-      <c r="O142" t="s">
+      <c r="O142" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P142" t="s">
         <v>687</v>
       </c>
-      <c r="P142" t="s">
+      <c r="Q142" t="s">
         <v>688</v>
       </c>
-      <c r="Q142">
+      <c r="R142">
         <v>404</v>
       </c>
-      <c r="R142" t="s">
+      <c r="S142" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>30</v>
       </c>
@@ -7715,20 +8066,23 @@
         <v>385</v>
       </c>
       <c r="K143"/>
-      <c r="O143" t="s">
+      <c r="O143" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P143" t="s">
         <v>689</v>
       </c>
-      <c r="P143" t="s">
+      <c r="Q143" t="s">
         <v>690</v>
       </c>
-      <c r="Q143">
+      <c r="R143">
         <v>417</v>
       </c>
-      <c r="R143" t="s">
+      <c r="S143" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>30</v>
       </c>
@@ -7742,20 +8096,23 @@
         <v>386</v>
       </c>
       <c r="K144"/>
-      <c r="O144" t="s">
+      <c r="O144" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P144" t="s">
         <v>691</v>
       </c>
-      <c r="P144" t="s">
+      <c r="Q144" t="s">
         <v>692</v>
       </c>
-      <c r="Q144">
+      <c r="R144">
         <v>116</v>
       </c>
-      <c r="R144" t="s">
+      <c r="S144" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>30</v>
       </c>
@@ -7769,20 +8126,23 @@
         <v>179</v>
       </c>
       <c r="K145"/>
-      <c r="O145" t="s">
+      <c r="O145" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P145" t="s">
         <v>693</v>
       </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>694</v>
       </c>
-      <c r="Q145">
+      <c r="R145">
         <v>296</v>
       </c>
-      <c r="R145" t="s">
+      <c r="S145" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>30</v>
       </c>
@@ -7796,20 +8156,23 @@
         <v>387</v>
       </c>
       <c r="K146"/>
-      <c r="O146" t="s">
+      <c r="O146" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P146" t="s">
         <v>695</v>
       </c>
-      <c r="P146" t="s">
+      <c r="Q146" t="s">
         <v>696</v>
       </c>
-      <c r="Q146">
+      <c r="R146">
         <v>174</v>
       </c>
-      <c r="R146" t="s">
+      <c r="S146" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>30</v>
       </c>
@@ -7823,20 +8186,23 @@
         <v>388</v>
       </c>
       <c r="K147"/>
-      <c r="O147" t="s">
+      <c r="O147" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P147" t="s">
         <v>697</v>
       </c>
-      <c r="P147" t="s">
+      <c r="Q147" t="s">
         <v>698</v>
       </c>
-      <c r="Q147">
+      <c r="R147">
         <v>659</v>
       </c>
-      <c r="R147" t="s">
+      <c r="S147" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>30</v>
       </c>
@@ -7850,20 +8216,23 @@
         <v>389</v>
       </c>
       <c r="K148"/>
-      <c r="O148" t="s">
+      <c r="O148" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P148" t="s">
         <v>699</v>
       </c>
-      <c r="P148" t="s">
+      <c r="Q148" t="s">
         <v>700</v>
       </c>
-      <c r="Q148">
+      <c r="R148">
         <v>408</v>
       </c>
-      <c r="R148" t="s">
+      <c r="S148" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>30</v>
       </c>
@@ -7877,20 +8246,23 @@
         <v>390</v>
       </c>
       <c r="K149"/>
-      <c r="O149" t="s">
+      <c r="O149" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P149" t="s">
         <v>701</v>
       </c>
-      <c r="P149" t="s">
+      <c r="Q149" t="s">
         <v>702</v>
       </c>
-      <c r="Q149">
+      <c r="R149">
         <v>410</v>
       </c>
-      <c r="R149" t="s">
+      <c r="S149" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>30</v>
       </c>
@@ -7904,20 +8276,23 @@
         <v>184</v>
       </c>
       <c r="K150"/>
-      <c r="O150" t="s">
+      <c r="O150" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P150" t="s">
         <v>703</v>
       </c>
-      <c r="P150" t="s">
+      <c r="Q150" t="s">
         <v>704</v>
       </c>
-      <c r="Q150">
+      <c r="R150">
         <v>414</v>
       </c>
-      <c r="R150" t="s">
+      <c r="S150" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>30</v>
       </c>
@@ -7931,20 +8306,23 @@
         <v>185</v>
       </c>
       <c r="K151"/>
-      <c r="O151" t="s">
+      <c r="O151" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P151" t="s">
         <v>705</v>
       </c>
-      <c r="P151" t="s">
+      <c r="Q151" t="s">
         <v>706</v>
       </c>
-      <c r="Q151">
+      <c r="R151">
         <v>136</v>
       </c>
-      <c r="R151" t="s">
+      <c r="S151" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>30</v>
       </c>
@@ -7958,20 +8336,23 @@
         <v>391</v>
       </c>
       <c r="K152"/>
-      <c r="O152" t="s">
+      <c r="O152" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P152" t="s">
         <v>707</v>
       </c>
-      <c r="P152" t="s">
+      <c r="Q152" t="s">
         <v>708</v>
       </c>
-      <c r="Q152">
+      <c r="R152">
         <v>398</v>
       </c>
-      <c r="R152" t="s">
+      <c r="S152" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>30</v>
       </c>
@@ -7985,20 +8366,23 @@
         <v>187</v>
       </c>
       <c r="K153"/>
-      <c r="O153" t="s">
+      <c r="O153" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P153" t="s">
         <v>709</v>
       </c>
-      <c r="P153" t="s">
+      <c r="Q153" t="s">
         <v>710</v>
       </c>
-      <c r="Q153">
+      <c r="R153">
         <v>418</v>
       </c>
-      <c r="R153" t="s">
+      <c r="S153" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
@@ -8012,20 +8396,23 @@
         <v>392</v>
       </c>
       <c r="K154"/>
-      <c r="O154" t="s">
+      <c r="O154" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P154" t="s">
         <v>711</v>
       </c>
-      <c r="P154" t="s">
+      <c r="Q154" t="s">
         <v>712</v>
       </c>
-      <c r="Q154">
+      <c r="R154">
         <v>422</v>
       </c>
-      <c r="R154" t="s">
+      <c r="S154" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>30</v>
       </c>
@@ -8039,20 +8426,23 @@
         <v>393</v>
       </c>
       <c r="K155"/>
-      <c r="O155" t="s">
+      <c r="O155" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P155" t="s">
         <v>713</v>
       </c>
-      <c r="P155" t="s">
+      <c r="Q155" t="s">
         <v>714</v>
       </c>
-      <c r="Q155">
+      <c r="R155">
         <v>662</v>
       </c>
-      <c r="R155" t="s">
+      <c r="S155" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>30</v>
       </c>
@@ -8066,20 +8456,23 @@
         <v>190</v>
       </c>
       <c r="K156"/>
-      <c r="O156" t="s">
+      <c r="O156" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P156" t="s">
         <v>715</v>
       </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>716</v>
       </c>
-      <c r="Q156">
+      <c r="R156">
         <v>438</v>
       </c>
-      <c r="R156" t="s">
+      <c r="S156" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>30</v>
       </c>
@@ -8093,20 +8486,23 @@
         <v>191</v>
       </c>
       <c r="K157"/>
-      <c r="O157" t="s">
+      <c r="O157" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P157" t="s">
         <v>717</v>
       </c>
-      <c r="P157" t="s">
+      <c r="Q157" t="s">
         <v>718</v>
       </c>
-      <c r="Q157">
+      <c r="R157">
         <v>144</v>
       </c>
-      <c r="R157" t="s">
+      <c r="S157" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>30</v>
       </c>
@@ -8120,20 +8516,23 @@
         <v>192</v>
       </c>
       <c r="K158"/>
-      <c r="O158" t="s">
+      <c r="O158" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P158" t="s">
         <v>719</v>
       </c>
-      <c r="P158" t="s">
+      <c r="Q158" t="s">
         <v>720</v>
       </c>
-      <c r="Q158">
+      <c r="R158">
         <v>430</v>
       </c>
-      <c r="R158" t="s">
+      <c r="S158" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>30</v>
       </c>
@@ -8147,20 +8546,23 @@
         <v>193</v>
       </c>
       <c r="K159"/>
-      <c r="O159" t="s">
+      <c r="O159" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P159" t="s">
         <v>721</v>
       </c>
-      <c r="P159" t="s">
+      <c r="Q159" t="s">
         <v>722</v>
       </c>
-      <c r="Q159">
+      <c r="R159">
         <v>426</v>
       </c>
-      <c r="R159" t="s">
+      <c r="S159" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>30</v>
       </c>
@@ -8174,20 +8576,23 @@
         <v>394</v>
       </c>
       <c r="K160"/>
-      <c r="O160" t="s">
+      <c r="O160" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P160" t="s">
         <v>723</v>
       </c>
-      <c r="P160" t="s">
+      <c r="Q160" t="s">
         <v>724</v>
       </c>
-      <c r="Q160">
+      <c r="R160">
         <v>440</v>
       </c>
-      <c r="R160" t="s">
+      <c r="S160" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>30</v>
       </c>
@@ -8201,20 +8606,23 @@
         <v>395</v>
       </c>
       <c r="K161"/>
-      <c r="O161" t="s">
+      <c r="O161" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P161" t="s">
         <v>725</v>
       </c>
-      <c r="P161" t="s">
+      <c r="Q161" t="s">
         <v>726</v>
       </c>
-      <c r="Q161">
+      <c r="R161">
         <v>442</v>
       </c>
-      <c r="R161" t="s">
+      <c r="S161" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>30</v>
       </c>
@@ -8228,20 +8636,23 @@
         <v>396</v>
       </c>
       <c r="K162"/>
-      <c r="O162" t="s">
+      <c r="O162" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P162" t="s">
         <v>727</v>
       </c>
-      <c r="P162" t="s">
+      <c r="Q162" t="s">
         <v>728</v>
       </c>
-      <c r="Q162">
+      <c r="R162">
         <v>428</v>
       </c>
-      <c r="R162" t="s">
+      <c r="S162" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>30</v>
       </c>
@@ -8255,20 +8666,23 @@
         <v>397</v>
       </c>
       <c r="K163"/>
-      <c r="O163" t="s">
+      <c r="O163" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P163" t="s">
         <v>729</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>730</v>
       </c>
-      <c r="Q163">
+      <c r="R163">
         <v>434</v>
       </c>
-      <c r="R163" t="s">
+      <c r="S163" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>30</v>
       </c>
@@ -8282,20 +8696,23 @@
         <v>398</v>
       </c>
       <c r="K164"/>
-      <c r="O164" t="s">
+      <c r="O164" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P164" t="s">
         <v>731</v>
       </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>732</v>
       </c>
-      <c r="Q164">
+      <c r="R164">
         <v>504</v>
       </c>
-      <c r="R164" t="s">
+      <c r="S164" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>30</v>
       </c>
@@ -8309,20 +8726,23 @@
         <v>199</v>
       </c>
       <c r="K165"/>
-      <c r="O165" t="s">
+      <c r="O165" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P165" t="s">
         <v>733</v>
       </c>
-      <c r="P165" t="s">
+      <c r="Q165" t="s">
         <v>734</v>
       </c>
-      <c r="Q165">
+      <c r="R165">
         <v>492</v>
       </c>
-      <c r="R165" t="s">
+      <c r="S165" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>30</v>
       </c>
@@ -8336,20 +8756,23 @@
         <v>399</v>
       </c>
       <c r="K166"/>
-      <c r="O166" t="s">
+      <c r="O166" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P166" t="s">
         <v>735</v>
       </c>
-      <c r="P166" t="s">
+      <c r="Q166" t="s">
         <v>736</v>
       </c>
-      <c r="Q166">
+      <c r="R166">
         <v>498</v>
       </c>
-      <c r="R166" t="s">
+      <c r="S166" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>30</v>
       </c>
@@ -8363,20 +8786,23 @@
         <v>201</v>
       </c>
       <c r="K167"/>
-      <c r="O167" t="s">
+      <c r="O167" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P167" t="s">
         <v>737</v>
       </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>738</v>
       </c>
-      <c r="Q167">
+      <c r="R167">
         <v>499</v>
       </c>
-      <c r="R167" t="s">
+      <c r="S167" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>30</v>
       </c>
@@ -8390,20 +8816,23 @@
         <v>400</v>
       </c>
       <c r="K168"/>
-      <c r="O168" t="s">
+      <c r="O168" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P168" t="s">
         <v>739</v>
       </c>
-      <c r="P168" t="s">
+      <c r="Q168" t="s">
         <v>740</v>
       </c>
-      <c r="Q168">
+      <c r="R168">
         <v>663</v>
       </c>
-      <c r="R168" t="s">
+      <c r="S168" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>30</v>
       </c>
@@ -8417,20 +8846,23 @@
         <v>401</v>
       </c>
       <c r="K169"/>
-      <c r="O169" t="s">
+      <c r="O169" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P169" t="s">
         <v>741</v>
       </c>
-      <c r="P169" t="s">
+      <c r="Q169" t="s">
         <v>742</v>
       </c>
-      <c r="Q169">
+      <c r="R169">
         <v>450</v>
       </c>
-      <c r="R169" t="s">
+      <c r="S169" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>30</v>
       </c>
@@ -8444,20 +8876,23 @@
         <v>402</v>
       </c>
       <c r="K170"/>
-      <c r="O170" t="s">
+      <c r="O170" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P170" t="s">
         <v>743</v>
       </c>
-      <c r="P170" t="s">
+      <c r="Q170" t="s">
         <v>744</v>
       </c>
-      <c r="Q170">
+      <c r="R170">
         <v>584</v>
       </c>
-      <c r="R170" t="s">
+      <c r="S170" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>30</v>
       </c>
@@ -8471,20 +8906,23 @@
         <v>403</v>
       </c>
       <c r="K171"/>
-      <c r="O171" t="s">
+      <c r="O171" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P171" t="s">
         <v>745</v>
       </c>
-      <c r="P171" t="s">
+      <c r="Q171" t="s">
         <v>746</v>
       </c>
-      <c r="Q171">
+      <c r="R171">
         <v>807</v>
       </c>
-      <c r="R171" t="s">
+      <c r="S171" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>30</v>
       </c>
@@ -8498,20 +8936,23 @@
         <v>206</v>
       </c>
       <c r="K172"/>
-      <c r="O172" t="s">
+      <c r="O172" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P172" t="s">
         <v>747</v>
       </c>
-      <c r="P172" t="s">
+      <c r="Q172" t="s">
         <v>748</v>
       </c>
-      <c r="Q172">
+      <c r="R172">
         <v>466</v>
       </c>
-      <c r="R172" t="s">
+      <c r="S172" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>30</v>
       </c>
@@ -8525,20 +8966,23 @@
         <v>207</v>
       </c>
       <c r="K173"/>
-      <c r="O173" t="s">
+      <c r="O173" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P173" t="s">
         <v>749</v>
       </c>
-      <c r="P173" t="s">
+      <c r="Q173" t="s">
         <v>750</v>
       </c>
-      <c r="Q173">
+      <c r="R173">
         <v>104</v>
       </c>
-      <c r="R173" t="s">
+      <c r="S173" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>30</v>
       </c>
@@ -8552,20 +8996,23 @@
         <v>404</v>
       </c>
       <c r="K174"/>
-      <c r="O174" t="s">
+      <c r="O174" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P174" t="s">
         <v>751</v>
       </c>
-      <c r="P174" t="s">
+      <c r="Q174" t="s">
         <v>752</v>
       </c>
-      <c r="Q174">
+      <c r="R174">
         <v>496</v>
       </c>
-      <c r="R174" t="s">
+      <c r="S174" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>30</v>
       </c>
@@ -8579,20 +9026,23 @@
         <v>209</v>
       </c>
       <c r="K175"/>
-      <c r="O175" t="s">
+      <c r="O175" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P175" t="s">
         <v>753</v>
       </c>
-      <c r="P175" t="s">
+      <c r="Q175" t="s">
         <v>754</v>
       </c>
-      <c r="Q175">
+      <c r="R175">
         <v>446</v>
       </c>
-      <c r="R175" t="s">
+      <c r="S175" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>30</v>
       </c>
@@ -8606,20 +9056,23 @@
         <v>405</v>
       </c>
       <c r="K176"/>
-      <c r="O176" t="s">
+      <c r="O176" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P176" t="s">
         <v>755</v>
       </c>
-      <c r="P176" t="s">
+      <c r="Q176" t="s">
         <v>756</v>
       </c>
-      <c r="Q176">
+      <c r="R176">
         <v>580</v>
       </c>
-      <c r="R176" t="s">
+      <c r="S176" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>30</v>
       </c>
@@ -8633,20 +9086,23 @@
         <v>211</v>
       </c>
       <c r="K177"/>
-      <c r="O177" t="s">
+      <c r="O177" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P177" t="s">
         <v>757</v>
       </c>
-      <c r="P177" t="s">
+      <c r="Q177" t="s">
         <v>758</v>
       </c>
-      <c r="Q177">
+      <c r="R177">
         <v>474</v>
       </c>
-      <c r="R177" t="s">
+      <c r="S177" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>30</v>
       </c>
@@ -8660,20 +9116,23 @@
         <v>406</v>
       </c>
       <c r="K178"/>
-      <c r="O178" t="s">
+      <c r="O178" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P178" t="s">
         <v>759</v>
       </c>
-      <c r="P178" t="s">
+      <c r="Q178" t="s">
         <v>760</v>
       </c>
-      <c r="Q178">
+      <c r="R178">
         <v>478</v>
       </c>
-      <c r="R178" t="s">
+      <c r="S178" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>30</v>
       </c>
@@ -8687,20 +9146,23 @@
         <v>213</v>
       </c>
       <c r="K179"/>
-      <c r="O179" t="s">
+      <c r="O179" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P179" t="s">
         <v>761</v>
       </c>
-      <c r="P179" t="s">
+      <c r="Q179" t="s">
         <v>762</v>
       </c>
-      <c r="Q179">
+      <c r="R179">
         <v>500</v>
       </c>
-      <c r="R179" t="s">
+      <c r="S179" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>30</v>
       </c>
@@ -8714,20 +9176,23 @@
         <v>214</v>
       </c>
       <c r="K180"/>
-      <c r="O180" t="s">
+      <c r="O180" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P180" t="s">
         <v>763</v>
       </c>
-      <c r="P180" t="s">
+      <c r="Q180" t="s">
         <v>764</v>
       </c>
-      <c r="Q180">
+      <c r="R180">
         <v>470</v>
       </c>
-      <c r="R180" t="s">
+      <c r="S180" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>30</v>
       </c>
@@ -8741,20 +9206,23 @@
         <v>215</v>
       </c>
       <c r="K181"/>
-      <c r="O181" t="s">
+      <c r="O181" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P181" t="s">
         <v>765</v>
       </c>
-      <c r="P181" t="s">
+      <c r="Q181" t="s">
         <v>766</v>
       </c>
-      <c r="Q181">
+      <c r="R181">
         <v>480</v>
       </c>
-      <c r="R181" t="s">
+      <c r="S181" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>30</v>
       </c>
@@ -8768,20 +9236,23 @@
         <v>407</v>
       </c>
       <c r="K182"/>
-      <c r="O182" t="s">
+      <c r="O182" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P182" t="s">
         <v>767</v>
       </c>
-      <c r="P182" t="s">
+      <c r="Q182" t="s">
         <v>768</v>
       </c>
-      <c r="Q182">
+      <c r="R182">
         <v>462</v>
       </c>
-      <c r="R182" t="s">
+      <c r="S182" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>30</v>
       </c>
@@ -8795,20 +9266,23 @@
         <v>217</v>
       </c>
       <c r="K183"/>
-      <c r="O183" t="s">
+      <c r="O183" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P183" t="s">
         <v>769</v>
       </c>
-      <c r="P183" t="s">
+      <c r="Q183" t="s">
         <v>770</v>
       </c>
-      <c r="Q183">
+      <c r="R183">
         <v>454</v>
       </c>
-      <c r="R183" t="s">
+      <c r="S183" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>30</v>
       </c>
@@ -8822,20 +9296,23 @@
         <v>408</v>
       </c>
       <c r="K184"/>
-      <c r="O184" t="s">
+      <c r="O184" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P184" t="s">
         <v>771</v>
       </c>
-      <c r="P184" t="s">
+      <c r="Q184" t="s">
         <v>772</v>
       </c>
-      <c r="Q184">
+      <c r="R184">
         <v>484</v>
       </c>
-      <c r="R184" t="s">
+      <c r="S184" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>30</v>
       </c>
@@ -8849,20 +9326,23 @@
         <v>219</v>
       </c>
       <c r="K185"/>
-      <c r="O185" t="s">
+      <c r="O185" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P185" t="s">
         <v>773</v>
       </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>774</v>
       </c>
-      <c r="Q185">
+      <c r="R185">
         <v>458</v>
       </c>
-      <c r="R185" t="s">
+      <c r="S185" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>30</v>
       </c>
@@ -8876,20 +9356,23 @@
         <v>409</v>
       </c>
       <c r="K186"/>
-      <c r="O186" t="s">
+      <c r="O186" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P186" t="s">
         <v>775</v>
       </c>
-      <c r="P186" t="s">
+      <c r="Q186" t="s">
         <v>776</v>
       </c>
-      <c r="Q186">
+      <c r="R186">
         <v>508</v>
       </c>
-      <c r="R186" t="s">
+      <c r="S186" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>30</v>
       </c>
@@ -8903,20 +9386,23 @@
         <v>221</v>
       </c>
       <c r="K187"/>
-      <c r="O187" t="s">
+      <c r="O187" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P187" t="s">
         <v>777</v>
       </c>
-      <c r="P187" t="s">
+      <c r="Q187" t="s">
         <v>778</v>
       </c>
-      <c r="Q187">
+      <c r="R187">
         <v>516</v>
       </c>
-      <c r="R187" t="s">
+      <c r="S187" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>30</v>
       </c>
@@ -8930,20 +9416,23 @@
         <v>410</v>
       </c>
       <c r="K188"/>
-      <c r="O188" t="s">
+      <c r="O188" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P188" t="s">
         <v>779</v>
       </c>
-      <c r="P188" t="s">
+      <c r="Q188" t="s">
         <v>780</v>
       </c>
-      <c r="Q188">
+      <c r="R188">
         <v>540</v>
       </c>
-      <c r="R188" t="s">
+      <c r="S188" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>30</v>
       </c>
@@ -8957,20 +9446,23 @@
         <v>223</v>
       </c>
       <c r="K189"/>
-      <c r="O189" t="s">
+      <c r="O189" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P189" t="s">
         <v>781</v>
       </c>
-      <c r="P189" t="s">
+      <c r="Q189" t="s">
         <v>782</v>
       </c>
-      <c r="Q189">
+      <c r="R189">
         <v>562</v>
       </c>
-      <c r="R189" t="s">
+      <c r="S189" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>30</v>
       </c>
@@ -8984,20 +9476,23 @@
         <v>411</v>
       </c>
       <c r="K190"/>
-      <c r="O190" t="s">
+      <c r="O190" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P190" t="s">
         <v>783</v>
       </c>
-      <c r="P190" t="s">
+      <c r="Q190" t="s">
         <v>784</v>
       </c>
-      <c r="Q190">
+      <c r="R190">
         <v>574</v>
       </c>
-      <c r="R190" t="s">
+      <c r="S190" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>30</v>
       </c>
@@ -9011,20 +9506,23 @@
         <v>225</v>
       </c>
       <c r="K191"/>
-      <c r="O191" t="s">
+      <c r="O191" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P191" t="s">
         <v>785</v>
       </c>
-      <c r="P191" t="s">
+      <c r="Q191" t="s">
         <v>786</v>
       </c>
-      <c r="Q191">
+      <c r="R191">
         <v>566</v>
       </c>
-      <c r="R191" t="s">
+      <c r="S191" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>30</v>
       </c>
@@ -9038,20 +9536,23 @@
         <v>226</v>
       </c>
       <c r="K192"/>
-      <c r="O192" t="s">
+      <c r="O192" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P192" t="s">
         <v>787</v>
       </c>
-      <c r="P192" t="s">
+      <c r="Q192" t="s">
         <v>788</v>
       </c>
-      <c r="Q192">
+      <c r="R192">
         <v>558</v>
       </c>
-      <c r="R192" t="s">
+      <c r="S192" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>30</v>
       </c>
@@ -9065,20 +9566,23 @@
         <v>412</v>
       </c>
       <c r="K193"/>
-      <c r="O193" t="s">
+      <c r="O193" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="P193" t="s">
         <v>789</v>
       </c>
-      <c r="P193" t="s">
+      <c r="Q193" t="s">
         <v>790</v>
       </c>
-      <c r="Q193">
+      <c r="R193">
         <v>528</v>
       </c>
-      <c r="R193" t="s">
+      <c r="S193" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>30</v>
       </c>
@@ -9092,20 +9596,23 @@
         <v>413</v>
       </c>
       <c r="K194"/>
-      <c r="O194" t="s">
+      <c r="O194" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P194" t="s">
         <v>791</v>
       </c>
-      <c r="P194" t="s">
+      <c r="Q194" t="s">
         <v>792</v>
       </c>
-      <c r="Q194">
+      <c r="R194">
         <v>578</v>
       </c>
-      <c r="R194" t="s">
+      <c r="S194" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>30</v>
       </c>
@@ -9119,20 +9626,23 @@
         <v>229</v>
       </c>
       <c r="K195"/>
-      <c r="O195" t="s">
+      <c r="O195" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P195" t="s">
         <v>793</v>
       </c>
-      <c r="P195" t="s">
+      <c r="Q195" t="s">
         <v>794</v>
       </c>
-      <c r="Q195">
+      <c r="R195">
         <v>524</v>
       </c>
-      <c r="R195" t="s">
+      <c r="S195" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>30</v>
       </c>
@@ -9146,20 +9656,23 @@
         <v>230</v>
       </c>
       <c r="K196"/>
-      <c r="O196" t="s">
+      <c r="O196" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P196" t="s">
         <v>795</v>
       </c>
-      <c r="P196" t="s">
+      <c r="Q196" t="s">
         <v>796</v>
       </c>
-      <c r="Q196">
+      <c r="R196">
         <v>520</v>
       </c>
-      <c r="R196" t="s">
+      <c r="S196" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>30</v>
       </c>
@@ -9173,20 +9686,23 @@
         <v>231</v>
       </c>
       <c r="K197"/>
-      <c r="O197" t="s">
+      <c r="O197" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P197" t="s">
         <v>797</v>
       </c>
-      <c r="P197" t="s">
+      <c r="Q197" t="s">
         <v>798</v>
       </c>
-      <c r="Q197">
+      <c r="R197">
         <v>570</v>
       </c>
-      <c r="R197" t="s">
+      <c r="S197" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>30</v>
       </c>
@@ -9200,20 +9716,23 @@
         <v>414</v>
       </c>
       <c r="K198"/>
-      <c r="O198" t="s">
+      <c r="O198" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="P198" t="s">
         <v>799</v>
       </c>
-      <c r="P198" t="s">
+      <c r="Q198" t="s">
         <v>800</v>
       </c>
-      <c r="Q198">
+      <c r="R198">
         <v>554</v>
       </c>
-      <c r="R198" t="s">
+      <c r="S198" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>30</v>
       </c>
@@ -9227,20 +9746,23 @@
         <v>233</v>
       </c>
       <c r="K199"/>
-      <c r="O199" t="s">
+      <c r="O199" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P199" t="s">
         <v>801</v>
       </c>
-      <c r="P199" t="s">
+      <c r="Q199" t="s">
         <v>802</v>
       </c>
-      <c r="Q199">
+      <c r="R199">
         <v>512</v>
       </c>
-      <c r="R199" t="s">
+      <c r="S199" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>30</v>
       </c>
@@ -9254,20 +9776,23 @@
         <v>234</v>
       </c>
       <c r="K200"/>
-      <c r="O200" t="s">
+      <c r="O200" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P200" t="s">
         <v>803</v>
       </c>
-      <c r="P200" t="s">
+      <c r="Q200" t="s">
         <v>804</v>
       </c>
-      <c r="Q200">
+      <c r="R200">
         <v>591</v>
       </c>
-      <c r="R200" t="s">
+      <c r="S200" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>30</v>
       </c>
@@ -9281,20 +9806,23 @@
         <v>235</v>
       </c>
       <c r="K201"/>
-      <c r="O201" t="s">
+      <c r="O201" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P201" t="s">
         <v>805</v>
       </c>
-      <c r="P201" t="s">
+      <c r="Q201" t="s">
         <v>806</v>
       </c>
-      <c r="Q201">
+      <c r="R201">
         <v>604</v>
       </c>
-      <c r="R201" t="s">
+      <c r="S201" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>30</v>
       </c>
@@ -9308,20 +9836,23 @@
         <v>415</v>
       </c>
       <c r="K202"/>
-      <c r="O202" t="s">
+      <c r="O202" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P202" t="s">
         <v>807</v>
       </c>
-      <c r="P202" t="s">
+      <c r="Q202" t="s">
         <v>808</v>
       </c>
-      <c r="Q202">
+      <c r="R202">
         <v>258</v>
       </c>
-      <c r="R202" t="s">
+      <c r="S202" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>30</v>
       </c>
@@ -9335,20 +9866,23 @@
         <v>416</v>
       </c>
       <c r="K203"/>
-      <c r="O203" t="s">
+      <c r="O203" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P203" t="s">
         <v>809</v>
       </c>
-      <c r="P203" t="s">
+      <c r="Q203" t="s">
         <v>810</v>
       </c>
-      <c r="Q203">
+      <c r="R203">
         <v>598</v>
       </c>
-      <c r="R203" t="s">
+      <c r="S203" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>30</v>
       </c>
@@ -9362,20 +9896,23 @@
         <v>417</v>
       </c>
       <c r="K204"/>
-      <c r="O204" t="s">
+      <c r="O204" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="P204" t="s">
         <v>811</v>
       </c>
-      <c r="P204" t="s">
+      <c r="Q204" t="s">
         <v>812</v>
       </c>
-      <c r="Q204">
+      <c r="R204">
         <v>608</v>
       </c>
-      <c r="R204" t="s">
+      <c r="S204" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>30</v>
       </c>
@@ -9389,20 +9926,23 @@
         <v>239</v>
       </c>
       <c r="K205"/>
-      <c r="O205" t="s">
+      <c r="O205" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P205" t="s">
         <v>813</v>
       </c>
-      <c r="P205" t="s">
+      <c r="Q205" t="s">
         <v>814</v>
       </c>
-      <c r="Q205">
+      <c r="R205">
         <v>586</v>
       </c>
-      <c r="R205" t="s">
+      <c r="S205" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>30</v>
       </c>
@@ -9416,20 +9956,23 @@
         <v>418</v>
       </c>
       <c r="K206"/>
-      <c r="O206" t="s">
+      <c r="O206" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P206" t="s">
         <v>815</v>
       </c>
-      <c r="P206" t="s">
+      <c r="Q206" t="s">
         <v>816</v>
       </c>
-      <c r="Q206">
+      <c r="R206">
         <v>616</v>
       </c>
-      <c r="R206" t="s">
+      <c r="S206" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>30</v>
       </c>
@@ -9443,20 +9986,23 @@
         <v>419</v>
       </c>
       <c r="K207"/>
-      <c r="O207" t="s">
+      <c r="O207" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P207" t="s">
         <v>817</v>
       </c>
-      <c r="P207" t="s">
+      <c r="Q207" t="s">
         <v>818</v>
       </c>
-      <c r="Q207">
+      <c r="R207">
         <v>666</v>
       </c>
-      <c r="R207" t="s">
+      <c r="S207" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>30</v>
       </c>
@@ -9470,20 +10016,23 @@
         <v>420</v>
       </c>
       <c r="K208"/>
-      <c r="O208" t="s">
+      <c r="O208" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P208" t="s">
         <v>819</v>
       </c>
-      <c r="P208" t="s">
+      <c r="Q208" t="s">
         <v>820</v>
       </c>
-      <c r="Q208">
+      <c r="R208">
         <v>612</v>
       </c>
-      <c r="R208" t="s">
+      <c r="S208" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>30</v>
       </c>
@@ -9497,20 +10046,23 @@
         <v>243</v>
       </c>
       <c r="K209"/>
-      <c r="O209" t="s">
+      <c r="O209" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P209" t="s">
         <v>821</v>
       </c>
-      <c r="P209" t="s">
+      <c r="Q209" t="s">
         <v>822</v>
       </c>
-      <c r="Q209">
+      <c r="R209">
         <v>630</v>
       </c>
-      <c r="R209" t="s">
+      <c r="S209" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>30</v>
       </c>
@@ -9524,20 +10076,23 @@
         <v>421</v>
       </c>
       <c r="K210"/>
-      <c r="O210" t="s">
+      <c r="O210" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P210" t="s">
         <v>823</v>
       </c>
-      <c r="P210" t="s">
+      <c r="Q210" t="s">
         <v>824</v>
       </c>
-      <c r="Q210">
+      <c r="R210">
         <v>275</v>
       </c>
-      <c r="R210" t="s">
+      <c r="S210" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>30</v>
       </c>
@@ -9551,20 +10106,23 @@
         <v>245</v>
       </c>
       <c r="K211"/>
-      <c r="O211" t="s">
+      <c r="O211" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P211" t="s">
         <v>825</v>
       </c>
-      <c r="P211" t="s">
+      <c r="Q211" t="s">
         <v>826</v>
       </c>
-      <c r="Q211">
+      <c r="R211">
         <v>620</v>
       </c>
-      <c r="R211" t="s">
+      <c r="S211" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>30</v>
       </c>
@@ -9578,20 +10136,23 @@
         <v>246</v>
       </c>
       <c r="K212"/>
-      <c r="O212" t="s">
+      <c r="O212" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P212" t="s">
         <v>827</v>
       </c>
-      <c r="P212" t="s">
+      <c r="Q212" t="s">
         <v>828</v>
       </c>
-      <c r="Q212">
+      <c r="R212">
         <v>585</v>
       </c>
-      <c r="R212" t="s">
+      <c r="S212" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>30</v>
       </c>
@@ -9605,20 +10166,23 @@
         <v>247</v>
       </c>
       <c r="K213"/>
-      <c r="O213" t="s">
+      <c r="O213" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P213" t="s">
         <v>829</v>
       </c>
-      <c r="P213" t="s">
+      <c r="Q213" t="s">
         <v>830</v>
       </c>
-      <c r="Q213">
+      <c r="R213">
         <v>600</v>
       </c>
-      <c r="R213" t="s">
+      <c r="S213" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>30</v>
       </c>
@@ -9632,20 +10196,23 @@
         <v>422</v>
       </c>
       <c r="K214"/>
-      <c r="O214" t="s">
+      <c r="O214" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P214" t="s">
         <v>831</v>
       </c>
-      <c r="P214" t="s">
+      <c r="Q214" t="s">
         <v>832</v>
       </c>
-      <c r="Q214">
+      <c r="R214">
         <v>634</v>
       </c>
-      <c r="R214" t="s">
+      <c r="S214" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>30</v>
       </c>
@@ -9659,20 +10226,23 @@
         <v>249</v>
       </c>
       <c r="K215"/>
-      <c r="O215" t="s">
+      <c r="O215" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P215" t="s">
         <v>833</v>
       </c>
-      <c r="P215" t="s">
+      <c r="Q215" t="s">
         <v>834</v>
       </c>
-      <c r="Q215">
+      <c r="R215">
         <v>638</v>
       </c>
-      <c r="R215" t="s">
+      <c r="S215" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>30</v>
       </c>
@@ -9686,20 +10256,23 @@
         <v>423</v>
       </c>
       <c r="K216"/>
-      <c r="O216" t="s">
+      <c r="O216" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P216" t="s">
         <v>835</v>
       </c>
-      <c r="P216" t="s">
+      <c r="Q216" t="s">
         <v>836</v>
       </c>
-      <c r="Q216">
+      <c r="R216">
         <v>642</v>
       </c>
-      <c r="R216" t="s">
+      <c r="S216" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>30</v>
       </c>
@@ -9713,20 +10286,23 @@
         <v>424</v>
       </c>
       <c r="K217"/>
-      <c r="O217" t="s">
+      <c r="O217" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P217" t="s">
         <v>837</v>
       </c>
-      <c r="P217" t="s">
+      <c r="Q217" t="s">
         <v>838</v>
       </c>
-      <c r="Q217">
+      <c r="R217">
         <v>688</v>
       </c>
-      <c r="R217" t="s">
+      <c r="S217" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>30</v>
       </c>
@@ -9740,20 +10316,23 @@
         <v>425</v>
       </c>
       <c r="K218"/>
-      <c r="O218" t="s">
+      <c r="O218" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P218" t="s">
         <v>839</v>
       </c>
-      <c r="P218" t="s">
+      <c r="Q218" t="s">
         <v>840</v>
       </c>
-      <c r="Q218">
+      <c r="R218">
         <v>643</v>
       </c>
-      <c r="R218" t="s">
+      <c r="S218" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>30</v>
       </c>
@@ -9767,20 +10346,23 @@
         <v>426</v>
       </c>
       <c r="K219"/>
-      <c r="O219" t="s">
+      <c r="O219" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P219" t="s">
         <v>841</v>
       </c>
-      <c r="P219" t="s">
+      <c r="Q219" t="s">
         <v>842</v>
       </c>
-      <c r="Q219">
+      <c r="R219">
         <v>646</v>
       </c>
-      <c r="R219" t="s">
+      <c r="S219" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>30</v>
       </c>
@@ -9794,20 +10376,23 @@
         <v>427</v>
       </c>
       <c r="K220"/>
-      <c r="O220" t="s">
+      <c r="O220" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P220" t="s">
         <v>843</v>
       </c>
-      <c r="P220" t="s">
+      <c r="Q220" t="s">
         <v>844</v>
       </c>
-      <c r="Q220">
+      <c r="R220">
         <v>682</v>
       </c>
-      <c r="R220" t="s">
+      <c r="S220" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>30</v>
       </c>
@@ -9821,20 +10406,23 @@
         <v>428</v>
       </c>
       <c r="K221"/>
-      <c r="O221" t="s">
+      <c r="O221" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P221" t="s">
         <v>845</v>
       </c>
-      <c r="P221" t="s">
+      <c r="Q221" t="s">
         <v>846</v>
       </c>
-      <c r="Q221">
+      <c r="R221">
         <v>90</v>
       </c>
-      <c r="R221" t="s">
+      <c r="S221" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>30</v>
       </c>
@@ -9848,20 +10436,23 @@
         <v>429</v>
       </c>
       <c r="K222"/>
-      <c r="O222" t="s">
+      <c r="O222" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P222" t="s">
         <v>847</v>
       </c>
-      <c r="P222" t="s">
+      <c r="Q222" t="s">
         <v>848</v>
       </c>
-      <c r="Q222">
+      <c r="R222">
         <v>690</v>
       </c>
-      <c r="R222" t="s">
+      <c r="S222" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>30</v>
       </c>
@@ -9875,20 +10466,23 @@
         <v>257</v>
       </c>
       <c r="K223"/>
-      <c r="O223" t="s">
+      <c r="O223" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P223" t="s">
         <v>849</v>
       </c>
-      <c r="P223" t="s">
+      <c r="Q223" t="s">
         <v>850</v>
       </c>
-      <c r="Q223">
+      <c r="R223">
         <v>729</v>
       </c>
-      <c r="R223" t="s">
+      <c r="S223" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>30</v>
       </c>
@@ -9902,20 +10496,23 @@
         <v>430</v>
       </c>
       <c r="K224"/>
-      <c r="O224" t="s">
+      <c r="O224" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P224" t="s">
         <v>851</v>
       </c>
-      <c r="P224" t="s">
+      <c r="Q224" t="s">
         <v>852</v>
       </c>
-      <c r="Q224">
+      <c r="R224">
         <v>752</v>
       </c>
-      <c r="R224" t="s">
+      <c r="S224" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>30</v>
       </c>
@@ -9929,20 +10526,23 @@
         <v>431</v>
       </c>
       <c r="K225"/>
-      <c r="O225" t="s">
+      <c r="O225" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P225" t="s">
         <v>853</v>
       </c>
-      <c r="P225" t="s">
+      <c r="Q225" t="s">
         <v>854</v>
       </c>
-      <c r="Q225">
+      <c r="R225">
         <v>702</v>
       </c>
-      <c r="R225" t="s">
+      <c r="S225" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>30</v>
       </c>
@@ -9956,20 +10556,23 @@
         <v>432</v>
       </c>
       <c r="K226"/>
-      <c r="O226" t="s">
+      <c r="O226" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P226" t="s">
         <v>855</v>
       </c>
-      <c r="P226" t="s">
+      <c r="Q226" t="s">
         <v>856</v>
       </c>
-      <c r="Q226">
+      <c r="R226">
         <v>654</v>
       </c>
-      <c r="R226" t="s">
+      <c r="S226" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>30</v>
       </c>
@@ -9983,20 +10586,23 @@
         <v>433</v>
       </c>
       <c r="K227"/>
-      <c r="O227" t="s">
+      <c r="O227" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P227" t="s">
         <v>857</v>
       </c>
-      <c r="P227" t="s">
+      <c r="Q227" t="s">
         <v>858</v>
       </c>
-      <c r="Q227">
+      <c r="R227">
         <v>705</v>
       </c>
-      <c r="R227" t="s">
+      <c r="S227" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>30</v>
       </c>
@@ -10010,20 +10616,23 @@
         <v>434</v>
       </c>
       <c r="K228"/>
-      <c r="O228" t="s">
+      <c r="O228" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P228" t="s">
         <v>859</v>
       </c>
-      <c r="P228" t="s">
+      <c r="Q228" t="s">
         <v>860</v>
       </c>
-      <c r="Q228">
+      <c r="R228">
         <v>744</v>
       </c>
-      <c r="R228" t="s">
+      <c r="S228" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>30</v>
       </c>
@@ -10037,20 +10646,23 @@
         <v>435</v>
       </c>
       <c r="K229"/>
-      <c r="O229" t="s">
+      <c r="O229" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P229" t="s">
         <v>861</v>
       </c>
-      <c r="P229" t="s">
+      <c r="Q229" t="s">
         <v>862</v>
       </c>
-      <c r="Q229">
+      <c r="R229">
         <v>703</v>
       </c>
-      <c r="R229" t="s">
+      <c r="S229" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>30</v>
       </c>
@@ -10064,20 +10676,23 @@
         <v>264</v>
       </c>
       <c r="K230"/>
-      <c r="O230" t="s">
+      <c r="O230" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P230" t="s">
         <v>863</v>
       </c>
-      <c r="P230" t="s">
+      <c r="Q230" t="s">
         <v>864</v>
       </c>
-      <c r="Q230">
+      <c r="R230">
         <v>694</v>
       </c>
-      <c r="R230" t="s">
+      <c r="S230" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>30</v>
       </c>
@@ -10091,20 +10706,23 @@
         <v>265</v>
       </c>
       <c r="K231"/>
-      <c r="O231" t="s">
+      <c r="O231" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P231" t="s">
         <v>865</v>
       </c>
-      <c r="P231" t="s">
+      <c r="Q231" t="s">
         <v>866</v>
       </c>
-      <c r="Q231">
+      <c r="R231">
         <v>674</v>
       </c>
-      <c r="R231" t="s">
+      <c r="S231" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>30</v>
       </c>
@@ -10118,20 +10736,23 @@
         <v>266</v>
       </c>
       <c r="K232"/>
-      <c r="O232" t="s">
+      <c r="O232" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P232" t="s">
         <v>867</v>
       </c>
-      <c r="P232" t="s">
+      <c r="Q232" t="s">
         <v>868</v>
       </c>
-      <c r="Q232">
+      <c r="R232">
         <v>686</v>
       </c>
-      <c r="R232" t="s">
+      <c r="S232" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>30</v>
       </c>
@@ -10145,20 +10766,23 @@
         <v>267</v>
       </c>
       <c r="K233"/>
-      <c r="O233" t="s">
+      <c r="O233" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P233" t="s">
         <v>869</v>
       </c>
-      <c r="P233" t="s">
+      <c r="Q233" t="s">
         <v>870</v>
       </c>
-      <c r="Q233">
+      <c r="R233">
         <v>706</v>
       </c>
-      <c r="R233" t="s">
+      <c r="S233" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>30</v>
       </c>
@@ -10172,20 +10796,23 @@
         <v>268</v>
       </c>
       <c r="K234"/>
-      <c r="O234" t="s">
+      <c r="O234" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P234" t="s">
         <v>871</v>
       </c>
-      <c r="P234" t="s">
+      <c r="Q234" t="s">
         <v>872</v>
       </c>
-      <c r="Q234">
+      <c r="R234">
         <v>740</v>
       </c>
-      <c r="R234" t="s">
+      <c r="S234" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>30</v>
       </c>
@@ -10199,20 +10826,23 @@
         <v>436</v>
       </c>
       <c r="K235"/>
-      <c r="O235" t="s">
+      <c r="O235" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P235" t="s">
         <v>873</v>
       </c>
-      <c r="P235" t="s">
+      <c r="Q235" t="s">
         <v>874</v>
       </c>
-      <c r="Q235">
+      <c r="R235">
         <v>728</v>
       </c>
-      <c r="R235" t="s">
+      <c r="S235" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>30</v>
       </c>
@@ -10226,20 +10856,23 @@
         <v>437</v>
       </c>
       <c r="K236"/>
-      <c r="O236" t="s">
+      <c r="O236" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P236" t="s">
         <v>875</v>
       </c>
-      <c r="P236" t="s">
+      <c r="Q236" t="s">
         <v>876</v>
       </c>
-      <c r="Q236">
+      <c r="R236">
         <v>678</v>
       </c>
-      <c r="R236" t="s">
+      <c r="S236" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>30</v>
       </c>
@@ -10253,20 +10886,23 @@
         <v>271</v>
       </c>
       <c r="K237"/>
-      <c r="O237" t="s">
+      <c r="O237" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P237" t="s">
         <v>877</v>
       </c>
-      <c r="P237" t="s">
+      <c r="Q237" t="s">
         <v>878</v>
       </c>
-      <c r="Q237">
+      <c r="R237">
         <v>222</v>
       </c>
-      <c r="R237" t="s">
+      <c r="S237" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>30</v>
       </c>
@@ -10280,20 +10916,23 @@
         <v>272</v>
       </c>
       <c r="K238"/>
-      <c r="O238" t="s">
+      <c r="O238" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P238" t="s">
         <v>879</v>
       </c>
-      <c r="P238" t="s">
+      <c r="Q238" t="s">
         <v>880</v>
       </c>
-      <c r="Q238">
+      <c r="R238">
         <v>534</v>
       </c>
-      <c r="R238" t="s">
+      <c r="S238" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>30</v>
       </c>
@@ -10307,20 +10946,23 @@
         <v>438</v>
       </c>
       <c r="K239"/>
-      <c r="O239" t="s">
+      <c r="O239" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P239" t="s">
         <v>881</v>
       </c>
-      <c r="P239" t="s">
+      <c r="Q239" t="s">
         <v>882</v>
       </c>
-      <c r="Q239">
+      <c r="R239">
         <v>760</v>
       </c>
-      <c r="R239" t="s">
+      <c r="S239" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>30</v>
       </c>
@@ -10334,20 +10976,23 @@
         <v>274</v>
       </c>
       <c r="K240"/>
-      <c r="O240" t="s">
+      <c r="O240" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P240" t="s">
         <v>883</v>
       </c>
-      <c r="P240" t="s">
+      <c r="Q240" t="s">
         <v>884</v>
       </c>
-      <c r="Q240">
+      <c r="R240">
         <v>748</v>
       </c>
-      <c r="R240" t="s">
+      <c r="S240" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>30</v>
       </c>
@@ -10361,20 +11006,23 @@
         <v>439</v>
       </c>
       <c r="K241"/>
-      <c r="O241" t="s">
+      <c r="O241" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P241" t="s">
         <v>885</v>
       </c>
-      <c r="P241" t="s">
+      <c r="Q241" t="s">
         <v>886</v>
       </c>
-      <c r="Q241">
+      <c r="R241">
         <v>796</v>
       </c>
-      <c r="R241" t="s">
+      <c r="S241" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>30</v>
       </c>
@@ -10388,20 +11036,23 @@
         <v>440</v>
       </c>
       <c r="K242"/>
-      <c r="O242" t="s">
+      <c r="O242" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P242" t="s">
         <v>887</v>
       </c>
-      <c r="P242" t="s">
+      <c r="Q242" t="s">
         <v>888</v>
       </c>
-      <c r="Q242">
+      <c r="R242">
         <v>148</v>
       </c>
-      <c r="R242" t="s">
+      <c r="S242" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>30</v>
       </c>
@@ -10415,20 +11066,23 @@
         <v>441</v>
       </c>
       <c r="K243"/>
-      <c r="O243" t="s">
+      <c r="O243" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P243" t="s">
         <v>889</v>
       </c>
-      <c r="P243" t="s">
+      <c r="Q243" t="s">
         <v>890</v>
       </c>
-      <c r="Q243">
+      <c r="R243">
         <v>260</v>
       </c>
-      <c r="R243" t="s">
+      <c r="S243" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>30</v>
       </c>
@@ -10442,20 +11096,23 @@
         <v>278</v>
       </c>
       <c r="K244"/>
-      <c r="O244" t="s">
+      <c r="O244" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P244" t="s">
         <v>891</v>
       </c>
-      <c r="P244" t="s">
+      <c r="Q244" t="s">
         <v>892</v>
       </c>
-      <c r="Q244">
+      <c r="R244">
         <v>768</v>
       </c>
-      <c r="R244" t="s">
+      <c r="S244" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>30</v>
       </c>
@@ -10469,20 +11126,23 @@
         <v>279</v>
       </c>
       <c r="K245"/>
-      <c r="O245" t="s">
+      <c r="O245" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="P245" t="s">
         <v>893</v>
       </c>
-      <c r="P245" t="s">
+      <c r="Q245" t="s">
         <v>894</v>
       </c>
-      <c r="Q245">
+      <c r="R245">
         <v>764</v>
       </c>
-      <c r="R245" t="s">
+      <c r="S245" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>30</v>
       </c>
@@ -10496,20 +11156,23 @@
         <v>442</v>
       </c>
       <c r="K246"/>
-      <c r="O246" t="s">
+      <c r="O246" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="P246" t="s">
         <v>895</v>
       </c>
-      <c r="P246" t="s">
+      <c r="Q246" t="s">
         <v>896</v>
       </c>
-      <c r="Q246">
+      <c r="R246">
         <v>762</v>
       </c>
-      <c r="R246" t="s">
+      <c r="S246" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>30</v>
       </c>
@@ -10523,20 +11186,23 @@
         <v>281</v>
       </c>
       <c r="K247"/>
-      <c r="O247" t="s">
+      <c r="O247" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P247" t="s">
         <v>897</v>
       </c>
-      <c r="P247" t="s">
+      <c r="Q247" t="s">
         <v>898</v>
       </c>
-      <c r="Q247">
+      <c r="R247">
         <v>772</v>
       </c>
-      <c r="R247" t="s">
+      <c r="S247" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>30</v>
       </c>
@@ -10550,20 +11216,23 @@
         <v>443</v>
       </c>
       <c r="K248"/>
-      <c r="O248" t="s">
+      <c r="O248" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P248" t="s">
         <v>899</v>
       </c>
-      <c r="P248" t="s">
+      <c r="Q248" t="s">
         <v>900</v>
       </c>
-      <c r="Q248">
+      <c r="R248">
         <v>626</v>
       </c>
-      <c r="R248" t="s">
+      <c r="S248" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>30</v>
       </c>
@@ -10577,20 +11246,23 @@
         <v>283</v>
       </c>
       <c r="K249"/>
-      <c r="O249" t="s">
+      <c r="O249" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P249" t="s">
         <v>901</v>
       </c>
-      <c r="P249" t="s">
+      <c r="Q249" t="s">
         <v>902</v>
       </c>
-      <c r="Q249">
+      <c r="R249">
         <v>795</v>
       </c>
-      <c r="R249" t="s">
+      <c r="S249" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>30</v>
       </c>
@@ -10604,20 +11276,23 @@
         <v>444</v>
       </c>
       <c r="K250"/>
-      <c r="O250" t="s">
+      <c r="O250" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="P250" t="s">
         <v>903</v>
       </c>
-      <c r="P250" t="s">
+      <c r="Q250" t="s">
         <v>904</v>
       </c>
-      <c r="Q250">
+      <c r="R250">
         <v>788</v>
       </c>
-      <c r="R250" t="s">
+      <c r="S250" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>30</v>
       </c>
@@ -10631,20 +11306,23 @@
         <v>285</v>
       </c>
       <c r="K251"/>
-      <c r="O251" t="s">
+      <c r="O251" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P251" t="s">
         <v>905</v>
       </c>
-      <c r="P251" t="s">
+      <c r="Q251" t="s">
         <v>906</v>
       </c>
-      <c r="Q251">
+      <c r="R251">
         <v>776</v>
       </c>
-      <c r="R251" t="s">
+      <c r="S251" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>30</v>
       </c>
@@ -10658,20 +11336,23 @@
         <v>445</v>
       </c>
       <c r="K252"/>
-      <c r="O252" t="s">
+      <c r="O252" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="P252" t="s">
         <v>907</v>
       </c>
-      <c r="P252" t="s">
+      <c r="Q252" t="s">
         <v>908</v>
       </c>
-      <c r="Q252">
+      <c r="R252">
         <v>792</v>
       </c>
-      <c r="R252" t="s">
+      <c r="S252" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>30</v>
       </c>
@@ -10685,20 +11366,23 @@
         <v>446</v>
       </c>
       <c r="K253"/>
-      <c r="O253" t="s">
+      <c r="O253" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P253" t="s">
         <v>909</v>
       </c>
-      <c r="P253" t="s">
+      <c r="Q253" t="s">
         <v>910</v>
       </c>
-      <c r="Q253">
+      <c r="R253">
         <v>780</v>
       </c>
-      <c r="R253" t="s">
+      <c r="S253" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>30</v>
       </c>
@@ -10712,20 +11396,23 @@
         <v>288</v>
       </c>
       <c r="K254"/>
-      <c r="O254" t="s">
+      <c r="O254" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="P254" t="s">
         <v>911</v>
       </c>
-      <c r="P254" t="s">
+      <c r="Q254" t="s">
         <v>912</v>
       </c>
-      <c r="Q254">
+      <c r="R254">
         <v>798</v>
       </c>
-      <c r="R254" t="s">
+      <c r="S254" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>30</v>
       </c>
@@ -10739,20 +11426,23 @@
         <v>447</v>
       </c>
       <c r="K255"/>
-      <c r="O255" t="s">
+      <c r="O255" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P255" t="s">
         <v>913</v>
       </c>
-      <c r="P255" t="s">
+      <c r="Q255" t="s">
         <v>914</v>
       </c>
-      <c r="Q255">
+      <c r="R255">
         <v>158</v>
       </c>
-      <c r="R255" t="s">
+      <c r="S255" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>30</v>
       </c>
@@ -10766,20 +11456,23 @@
         <v>448</v>
       </c>
       <c r="K256"/>
-      <c r="O256" t="s">
+      <c r="O256" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P256" t="s">
         <v>915</v>
       </c>
-      <c r="P256" t="s">
+      <c r="Q256" t="s">
         <v>916</v>
       </c>
-      <c r="Q256">
+      <c r="R256">
         <v>834</v>
       </c>
-      <c r="R256" t="s">
+      <c r="S256" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>30</v>
       </c>
@@ -10793,20 +11486,23 @@
         <v>291</v>
       </c>
       <c r="K257"/>
-      <c r="O257" t="s">
+      <c r="O257" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P257" t="s">
         <v>917</v>
       </c>
-      <c r="P257" t="s">
+      <c r="Q257" t="s">
         <v>918</v>
       </c>
-      <c r="Q257">
+      <c r="R257">
         <v>804</v>
       </c>
-      <c r="R257" t="s">
+      <c r="S257" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>30</v>
       </c>
@@ -10820,20 +11516,23 @@
         <v>292</v>
       </c>
       <c r="K258"/>
-      <c r="O258" t="s">
+      <c r="O258" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P258" t="s">
         <v>919</v>
       </c>
-      <c r="P258" t="s">
+      <c r="Q258" t="s">
         <v>920</v>
       </c>
-      <c r="Q258">
+      <c r="R258">
         <v>800</v>
       </c>
-      <c r="R258" t="s">
+      <c r="S258" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>30</v>
       </c>
@@ -10847,20 +11546,23 @@
         <v>293</v>
       </c>
       <c r="K259"/>
-      <c r="O259" t="s">
+      <c r="O259" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P259" t="s">
         <v>921</v>
       </c>
-      <c r="P259" t="s">
+      <c r="Q259" t="s">
         <v>922</v>
       </c>
-      <c r="Q259">
+      <c r="R259">
         <v>581</v>
       </c>
-      <c r="R259" t="s">
+      <c r="S259" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>30</v>
       </c>
@@ -10874,20 +11576,23 @@
         <v>449</v>
       </c>
       <c r="K260"/>
-      <c r="O260" t="s">
+      <c r="O260" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P260" t="s">
         <v>923</v>
       </c>
-      <c r="P260" t="s">
+      <c r="Q260" t="s">
         <v>924</v>
       </c>
-      <c r="Q260">
+      <c r="R260">
         <v>840</v>
       </c>
-      <c r="R260" t="s">
+      <c r="S260" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>30</v>
       </c>
@@ -10901,20 +11606,23 @@
         <v>295</v>
       </c>
       <c r="K261"/>
-      <c r="O261" t="s">
+      <c r="O261" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="P261" t="s">
         <v>925</v>
       </c>
-      <c r="P261" t="s">
+      <c r="Q261" t="s">
         <v>926</v>
       </c>
-      <c r="Q261">
+      <c r="R261">
         <v>858</v>
       </c>
-      <c r="R261" t="s">
+      <c r="S261" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>30</v>
       </c>
@@ -10928,20 +11636,23 @@
         <v>450</v>
       </c>
       <c r="K262"/>
-      <c r="O262" t="s">
+      <c r="O262" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P262" t="s">
         <v>927</v>
       </c>
-      <c r="P262" t="s">
+      <c r="Q262" t="s">
         <v>928</v>
       </c>
-      <c r="Q262">
+      <c r="R262">
         <v>860</v>
       </c>
-      <c r="R262" t="s">
+      <c r="S262" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>30</v>
       </c>
@@ -10955,20 +11666,23 @@
         <v>451</v>
       </c>
       <c r="K263"/>
-      <c r="O263" t="s">
+      <c r="O263" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P263" t="s">
         <v>929</v>
       </c>
-      <c r="P263" t="s">
+      <c r="Q263" t="s">
         <v>930</v>
       </c>
-      <c r="Q263">
+      <c r="R263">
         <v>336</v>
       </c>
-      <c r="R263" t="s">
+      <c r="S263" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>30</v>
       </c>
@@ -10982,20 +11696,23 @@
         <v>452</v>
       </c>
       <c r="K264"/>
-      <c r="O264" t="s">
+      <c r="O264" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P264" t="s">
         <v>931</v>
       </c>
-      <c r="P264" t="s">
+      <c r="Q264" t="s">
         <v>932</v>
       </c>
-      <c r="Q264">
+      <c r="R264">
         <v>670</v>
       </c>
-      <c r="R264" t="s">
+      <c r="S264" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>30</v>
       </c>
@@ -11009,20 +11726,23 @@
         <v>299</v>
       </c>
       <c r="K265"/>
-      <c r="O265" t="s">
+      <c r="O265" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P265" t="s">
         <v>933</v>
       </c>
-      <c r="P265" t="s">
+      <c r="Q265" t="s">
         <v>934</v>
       </c>
-      <c r="Q265">
+      <c r="R265">
         <v>862</v>
       </c>
-      <c r="R265" t="s">
+      <c r="S265" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>30</v>
       </c>
@@ -11036,20 +11756,23 @@
         <v>453</v>
       </c>
       <c r="K266"/>
-      <c r="O266" t="s">
+      <c r="O266" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P266" t="s">
         <v>935</v>
       </c>
-      <c r="P266" t="s">
+      <c r="Q266" t="s">
         <v>936</v>
       </c>
-      <c r="Q266">
+      <c r="R266">
         <v>92</v>
       </c>
-      <c r="R266" t="s">
+      <c r="S266" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>30</v>
       </c>
@@ -11063,20 +11786,23 @@
         <v>454</v>
       </c>
       <c r="K267"/>
-      <c r="O267" t="s">
+      <c r="O267" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P267" t="s">
         <v>937</v>
       </c>
-      <c r="P267" t="s">
+      <c r="Q267" t="s">
         <v>938</v>
       </c>
-      <c r="Q267">
+      <c r="R267">
         <v>850</v>
       </c>
-      <c r="R267" t="s">
+      <c r="S267" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>30</v>
       </c>
@@ -11090,20 +11816,23 @@
         <v>302</v>
       </c>
       <c r="K268"/>
-      <c r="O268" t="s">
+      <c r="O268" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P268" t="s">
         <v>939</v>
       </c>
-      <c r="P268" t="s">
+      <c r="Q268" t="s">
         <v>940</v>
       </c>
-      <c r="Q268">
+      <c r="R268">
         <v>704</v>
       </c>
-      <c r="R268" t="s">
+      <c r="S268" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>30</v>
       </c>
@@ -11117,20 +11846,23 @@
         <v>303</v>
       </c>
       <c r="K269"/>
-      <c r="O269" t="s">
+      <c r="O269" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P269" t="s">
         <v>941</v>
       </c>
-      <c r="P269" t="s">
+      <c r="Q269" t="s">
         <v>942</v>
       </c>
-      <c r="Q269">
+      <c r="R269">
         <v>548</v>
       </c>
-      <c r="R269" t="s">
+      <c r="S269" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>30</v>
       </c>
@@ -11144,20 +11876,23 @@
         <v>455</v>
       </c>
       <c r="K270"/>
-      <c r="O270" t="s">
+      <c r="O270" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P270" t="s">
         <v>943</v>
       </c>
-      <c r="P270" t="s">
+      <c r="Q270" t="s">
         <v>944</v>
       </c>
-      <c r="Q270">
+      <c r="R270">
         <v>876</v>
       </c>
-      <c r="R270" t="s">
+      <c r="S270" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>30</v>
       </c>
@@ -11171,20 +11906,23 @@
         <v>305</v>
       </c>
       <c r="K271"/>
-      <c r="O271" t="s">
+      <c r="O271" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P271" t="s">
         <v>945</v>
       </c>
-      <c r="P271" t="s">
+      <c r="Q271" t="s">
         <v>946</v>
       </c>
-      <c r="Q271">
+      <c r="R271">
         <v>882</v>
       </c>
-      <c r="R271" t="s">
+      <c r="S271" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>30</v>
       </c>
@@ -11198,20 +11936,23 @@
         <v>456</v>
       </c>
       <c r="K272"/>
-      <c r="O272" t="s">
+      <c r="O272" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P272" t="s">
         <v>947</v>
       </c>
-      <c r="P272" t="s">
+      <c r="Q272" t="s">
         <v>948</v>
       </c>
-      <c r="Q272">
+      <c r="R272">
         <v>887</v>
       </c>
-      <c r="R272" t="s">
+      <c r="S272" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>30</v>
       </c>
@@ -11225,20 +11966,23 @@
         <v>307</v>
       </c>
       <c r="K273"/>
-      <c r="O273" t="s">
+      <c r="O273" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P273" t="s">
         <v>949</v>
       </c>
-      <c r="P273" t="s">
+      <c r="Q273" t="s">
         <v>950</v>
       </c>
-      <c r="Q273">
+      <c r="R273">
         <v>175</v>
       </c>
-      <c r="R273" t="s">
+      <c r="S273" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>30</v>
       </c>
@@ -11252,20 +11996,23 @@
         <v>457</v>
       </c>
       <c r="K274"/>
-      <c r="O274" t="s">
+      <c r="O274" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P274" t="s">
         <v>951</v>
       </c>
-      <c r="P274" t="s">
+      <c r="Q274" t="s">
         <v>952</v>
       </c>
-      <c r="Q274">
+      <c r="R274">
         <v>710</v>
       </c>
-      <c r="R274" t="s">
+      <c r="S274" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>30</v>
       </c>
@@ -11279,20 +12026,23 @@
         <v>458</v>
       </c>
       <c r="K275"/>
-      <c r="O275" t="s">
+      <c r="O275" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P275" t="s">
         <v>953</v>
       </c>
-      <c r="P275" t="s">
+      <c r="Q275" t="s">
         <v>954</v>
       </c>
-      <c r="Q275">
+      <c r="R275">
         <v>894</v>
       </c>
-      <c r="R275" t="s">
+      <c r="S275" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>30</v>
       </c>
@@ -11306,16 +12056,19 @@
         <v>459</v>
       </c>
       <c r="K276"/>
-      <c r="O276" t="s">
+      <c r="O276" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P276" t="s">
         <v>955</v>
       </c>
-      <c r="P276" t="s">
+      <c r="Q276" t="s">
         <v>956</v>
       </c>
-      <c r="Q276">
+      <c r="R276">
         <v>716</v>
       </c>
-      <c r="R276" t="s">
+      <c r="S276" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -11350,255 +12103,255 @@
     <hyperlink ref="M16" r:id="rId5" xr:uid="{A642F775-3E5A-E545-9EDD-B41193D8641A}"/>
     <hyperlink ref="M15" r:id="rId6" xr:uid="{4A4E16E8-60DE-E445-8191-4F231E9428EF}"/>
     <hyperlink ref="M12" r:id="rId7" xr:uid="{CC728698-61A8-CE4E-8AF5-3EE5F38FECC4}"/>
-    <hyperlink ref="R276" r:id="rId8" xr:uid="{9971D6EB-FACB-344E-AAD8-B19802DEFD56}"/>
-    <hyperlink ref="R275" r:id="rId9" xr:uid="{2E3FEC3C-BDD7-FE44-8B7A-404F42C67ED3}"/>
-    <hyperlink ref="R274" r:id="rId10" xr:uid="{4AE9DB29-320B-A149-8AFD-B9C8530E3CAA}"/>
-    <hyperlink ref="R273" r:id="rId11" xr:uid="{72897982-F3B2-3E41-9CD5-F818479A46CD}"/>
-    <hyperlink ref="R272" r:id="rId12" xr:uid="{741B1648-8A90-7047-9348-CCBB700C7BBD}"/>
-    <hyperlink ref="R271" r:id="rId13" xr:uid="{CE9EB1ED-06B7-5843-84D8-7AF21B333483}"/>
-    <hyperlink ref="R270" r:id="rId14" xr:uid="{30C275B9-6874-1348-BDBF-B51B51D2DDAE}"/>
-    <hyperlink ref="R269" r:id="rId15" xr:uid="{2BEBFA59-CF77-7E46-BDD5-8A990EBD569D}"/>
-    <hyperlink ref="R268" r:id="rId16" xr:uid="{25E5C46A-F8C0-274C-BF8F-D9AA8262956F}"/>
-    <hyperlink ref="R267" r:id="rId17" xr:uid="{B602D0BC-A059-E84C-A613-36084A224A76}"/>
-    <hyperlink ref="R266" r:id="rId18" xr:uid="{A7D71EC6-E2D0-B047-9B0D-CFE3D232E6D6}"/>
-    <hyperlink ref="R265" r:id="rId19" xr:uid="{A31FFEFA-8757-6145-B00B-A5CB7658DB19}"/>
-    <hyperlink ref="R264" r:id="rId20" xr:uid="{4DAF5833-0453-D44E-9287-69A4C3DE210D}"/>
-    <hyperlink ref="R263" r:id="rId21" xr:uid="{3393024B-5C59-B044-8B08-C86F7D869F3E}"/>
-    <hyperlink ref="R262" r:id="rId22" xr:uid="{106B04F5-FB77-FB4E-B065-C15D2213F39F}"/>
-    <hyperlink ref="R261" r:id="rId23" xr:uid="{ACC42C00-B979-354C-B7B5-0EF7893A049D}"/>
-    <hyperlink ref="R260" r:id="rId24" xr:uid="{E57438B7-0FA0-A84F-A466-DAE24AD5C0F5}"/>
-    <hyperlink ref="R259" r:id="rId25" xr:uid="{35FA2D14-FDEB-EA4F-A0CC-EC48C3BCAC73}"/>
-    <hyperlink ref="R258" r:id="rId26" xr:uid="{1BE0018A-DE89-B245-9AB9-1BAE78956340}"/>
-    <hyperlink ref="R257" r:id="rId27" xr:uid="{8BB8FA98-46EE-D741-B15A-08CB94FB23C8}"/>
-    <hyperlink ref="R256" r:id="rId28" xr:uid="{A32AD65E-14E0-5842-B43A-0158E67ABEC8}"/>
-    <hyperlink ref="R255" r:id="rId29" xr:uid="{2050CB20-8BCE-7F4D-B5A5-0FE983E56A55}"/>
-    <hyperlink ref="R254" r:id="rId30" xr:uid="{D1680B67-D6F1-FF4D-AA5C-48FEA916105F}"/>
-    <hyperlink ref="R253" r:id="rId31" xr:uid="{795EA1CD-818F-F949-B432-955A06E5933F}"/>
-    <hyperlink ref="R252" r:id="rId32" xr:uid="{72CBCDF7-E489-9245-A4E3-20FEB0995F4B}"/>
-    <hyperlink ref="R251" r:id="rId33" xr:uid="{BF5D2C19-7D8D-8342-8DC8-2B9F90B13E72}"/>
-    <hyperlink ref="R250" r:id="rId34" xr:uid="{B428EFD5-9A07-2249-BDC2-5C5E04D2FEE9}"/>
-    <hyperlink ref="R249" r:id="rId35" xr:uid="{2AF4564D-7C9C-2846-9C5B-17FAE93F2CB2}"/>
-    <hyperlink ref="R248" r:id="rId36" xr:uid="{453CEBA2-623E-1942-A383-9E6F89DB0ADB}"/>
-    <hyperlink ref="R247" r:id="rId37" xr:uid="{3E75DBCA-973F-E043-8550-38CC48FD41A1}"/>
-    <hyperlink ref="R246" r:id="rId38" xr:uid="{EB3B8ED7-98AD-4C46-9FA3-7E61A49918CF}"/>
-    <hyperlink ref="R245" r:id="rId39" xr:uid="{C2F06B68-2E0A-0C4A-940A-8DE76FA4438B}"/>
-    <hyperlink ref="R244" r:id="rId40" xr:uid="{AD54B9D5-541A-0D45-831B-B433993C9F73}"/>
-    <hyperlink ref="R243" r:id="rId41" xr:uid="{61F91488-3254-9F47-9872-462E153E6FF4}"/>
-    <hyperlink ref="R242" r:id="rId42" xr:uid="{0BD77BFF-FFCD-7E41-A4F8-FF10FA310498}"/>
-    <hyperlink ref="R241" r:id="rId43" xr:uid="{023A12BD-E71D-9C4D-930C-EFC5BD24AF68}"/>
-    <hyperlink ref="R240" r:id="rId44" xr:uid="{4972092E-AFF4-1B46-8AC6-F0B8C19FB694}"/>
-    <hyperlink ref="R239" r:id="rId45" xr:uid="{6DED1FBB-2B72-EA4B-80CD-FAA15BA2629A}"/>
-    <hyperlink ref="R238" r:id="rId46" xr:uid="{9EFEF11D-DDEF-ED4C-BC37-0EE4F9CFC092}"/>
-    <hyperlink ref="R237" r:id="rId47" xr:uid="{65DF87F4-B9D9-A24A-96AC-8C8007B959C1}"/>
-    <hyperlink ref="R236" r:id="rId48" xr:uid="{2731A87A-B94D-2340-B514-274D055C854F}"/>
-    <hyperlink ref="R235" r:id="rId49" xr:uid="{7A22D82D-5895-B94D-96A2-3FB9F53D547B}"/>
-    <hyperlink ref="R234" r:id="rId50" xr:uid="{98C32F19-E2D9-2A43-946E-21167E29EE8A}"/>
-    <hyperlink ref="R233" r:id="rId51" xr:uid="{53EA2C99-2E7F-024B-AFB1-82EB5AEAC04F}"/>
-    <hyperlink ref="R232" r:id="rId52" xr:uid="{3B541DE0-F185-3A46-905E-ABA752FD4D02}"/>
-    <hyperlink ref="R231" r:id="rId53" xr:uid="{6A5C4828-A036-514B-A896-2A180309265E}"/>
-    <hyperlink ref="R230" r:id="rId54" xr:uid="{CCCC086D-3A97-D14E-AFAC-4C3FBB5B5541}"/>
-    <hyperlink ref="R229" r:id="rId55" xr:uid="{63C89623-2A5F-B940-9F4E-05B33093C01D}"/>
-    <hyperlink ref="R228" r:id="rId56" xr:uid="{22757ABE-C417-5149-865C-04644FDD8983}"/>
-    <hyperlink ref="R227" r:id="rId57" xr:uid="{C536FAE5-CFE0-9549-B5CB-2EE8929171CF}"/>
-    <hyperlink ref="R226" r:id="rId58" xr:uid="{B5848134-0EFA-7049-9836-71149051CCB2}"/>
-    <hyperlink ref="R225" r:id="rId59" xr:uid="{A61F30B4-4BB6-CF43-9934-ADD3A68AEFE0}"/>
-    <hyperlink ref="R224" r:id="rId60" xr:uid="{4F8731C5-0255-1C48-8AC3-26798AADDD8C}"/>
-    <hyperlink ref="R223" r:id="rId61" xr:uid="{72096D7A-2990-954A-B6C5-F24A215B09DA}"/>
-    <hyperlink ref="R222" r:id="rId62" xr:uid="{D82DD6D4-71ED-8244-873F-A69A8F0700FC}"/>
-    <hyperlink ref="R221" r:id="rId63" xr:uid="{6A0EAC28-B6F5-7B4C-843A-039569B9D960}"/>
-    <hyperlink ref="R220" r:id="rId64" xr:uid="{90CB8DF1-61EF-464F-9681-16AC83FED15F}"/>
-    <hyperlink ref="R219" r:id="rId65" xr:uid="{C4175C3D-7EA3-664F-A6B3-B745D8656B8D}"/>
-    <hyperlink ref="R218" r:id="rId66" xr:uid="{57E0517B-B5C7-0E49-9F4C-B16D41AE627B}"/>
-    <hyperlink ref="R217" r:id="rId67" xr:uid="{15BFA554-CB3F-C241-AE1C-5B58EE037854}"/>
-    <hyperlink ref="R216" r:id="rId68" xr:uid="{87D0BD0C-76C8-F245-8706-1F5500BAF271}"/>
-    <hyperlink ref="R215" r:id="rId69" xr:uid="{A71FA518-2C45-CD4E-AC95-DFC7740B3412}"/>
-    <hyperlink ref="R214" r:id="rId70" xr:uid="{FB2267EA-187F-0B4D-A1EA-0CE8BB05FC7A}"/>
-    <hyperlink ref="R213" r:id="rId71" xr:uid="{218C661F-8A9B-EC4E-9484-7C76D192698B}"/>
-    <hyperlink ref="R212" r:id="rId72" xr:uid="{AD5B807A-770A-454C-8335-46A197B54FD0}"/>
-    <hyperlink ref="R211" r:id="rId73" xr:uid="{05CFE237-7D57-5F47-B24A-85E2B1CCC689}"/>
-    <hyperlink ref="R210" r:id="rId74" xr:uid="{0DFCD095-0F1B-7D43-AE43-1046A58FDBF9}"/>
-    <hyperlink ref="R209" r:id="rId75" xr:uid="{2348EB4F-937D-8B4B-9670-B73746AAA491}"/>
-    <hyperlink ref="R208" r:id="rId76" xr:uid="{52914618-6B9C-3A4F-B97F-9D689404F284}"/>
-    <hyperlink ref="R207" r:id="rId77" xr:uid="{E84AA369-66E6-FE43-8105-B42B6F97BFA5}"/>
-    <hyperlink ref="R206" r:id="rId78" xr:uid="{3E8267C4-163F-EA4D-9C56-63DD8A822EBA}"/>
-    <hyperlink ref="R205" r:id="rId79" xr:uid="{6D53EC5B-7792-C541-B076-3BB247332BED}"/>
-    <hyperlink ref="R204" r:id="rId80" xr:uid="{B064BD1F-DB8E-4C46-807A-042D6C232DF9}"/>
-    <hyperlink ref="R203" r:id="rId81" xr:uid="{29C98877-A954-474F-A2B1-95D2E5D7BC41}"/>
-    <hyperlink ref="R202" r:id="rId82" xr:uid="{0358B018-A627-CC43-909C-F88E6883F078}"/>
-    <hyperlink ref="R201" r:id="rId83" xr:uid="{D09BE4AE-B2A1-B440-BB5B-7BBB6A0C41CA}"/>
-    <hyperlink ref="R200" r:id="rId84" xr:uid="{A1A69F21-F25D-B24B-BBE0-60486DAE3520}"/>
-    <hyperlink ref="R199" r:id="rId85" xr:uid="{7A344E78-4EC9-FA45-8F09-10DCE7F24155}"/>
-    <hyperlink ref="R198" r:id="rId86" xr:uid="{7138F7C1-B92E-604E-81A8-C8644306CF8E}"/>
-    <hyperlink ref="R197" r:id="rId87" xr:uid="{B1882847-0536-404C-89C3-707E1C69CBB2}"/>
-    <hyperlink ref="R196" r:id="rId88" xr:uid="{48A4A213-18C1-3D42-BA58-0B33871CC90E}"/>
-    <hyperlink ref="R195" r:id="rId89" xr:uid="{E925F182-7FD2-894D-8A2B-2A8D71B9E35F}"/>
-    <hyperlink ref="R194" r:id="rId90" xr:uid="{F3938CD1-EEF8-F741-9280-EC9A10337FE5}"/>
-    <hyperlink ref="R193" r:id="rId91" xr:uid="{B17A0719-3EA0-1A4F-9223-C2CCB2F198DE}"/>
-    <hyperlink ref="R192" r:id="rId92" xr:uid="{E9DD0130-5742-9047-9797-8AE757E12B05}"/>
-    <hyperlink ref="R191" r:id="rId93" xr:uid="{0E79D6E0-442C-364F-9ED7-74087AF711AD}"/>
-    <hyperlink ref="R190" r:id="rId94" xr:uid="{3665FE00-68C7-FC46-8CE5-0843C5821B58}"/>
-    <hyperlink ref="R189" r:id="rId95" xr:uid="{27BDA95B-5276-1946-8DC6-F09C79078ED3}"/>
-    <hyperlink ref="R188" r:id="rId96" xr:uid="{F8C1E152-D8CE-A141-8337-257B0EAC6613}"/>
-    <hyperlink ref="R187" r:id="rId97" xr:uid="{4C826EB5-EDD9-1C4B-B44C-B00952DD343C}"/>
-    <hyperlink ref="R186" r:id="rId98" xr:uid="{CD750008-01A7-ED45-AB36-849FD855ED70}"/>
-    <hyperlink ref="R185" r:id="rId99" xr:uid="{EA81C4D5-F302-6F4E-9FE2-EA5AEECA8AA4}"/>
-    <hyperlink ref="R184" r:id="rId100" xr:uid="{EE144E98-781C-2246-9721-B1C7C068786B}"/>
-    <hyperlink ref="R183" r:id="rId101" xr:uid="{C5122B23-DE10-AD41-BAFE-90F0989F78E5}"/>
-    <hyperlink ref="R182" r:id="rId102" xr:uid="{626F4917-CFC8-5A4D-83C0-A25CFF8302C6}"/>
-    <hyperlink ref="R181" r:id="rId103" xr:uid="{D21C9FD7-988D-C340-9EEB-8E5EAA59E55D}"/>
-    <hyperlink ref="R180" r:id="rId104" xr:uid="{824A2F7C-FF8C-394F-A8E5-4DAF5EE5AE67}"/>
-    <hyperlink ref="R179" r:id="rId105" xr:uid="{40F2FBAF-0F87-484A-9BE4-FEC101090AAE}"/>
-    <hyperlink ref="R178" r:id="rId106" xr:uid="{7E1C125E-8AA5-1A41-AA13-2D1657938A4A}"/>
-    <hyperlink ref="R177" r:id="rId107" xr:uid="{B72C3DEE-3F37-C642-85C3-12543B1FEAD3}"/>
-    <hyperlink ref="R176" r:id="rId108" xr:uid="{32E12485-C10B-D247-9D76-D7006BFBA689}"/>
-    <hyperlink ref="R175" r:id="rId109" xr:uid="{D5568112-6250-F44E-8D44-2292063B02D8}"/>
-    <hyperlink ref="R174" r:id="rId110" xr:uid="{3F302AAA-2B7C-A84B-A752-75EE649623E5}"/>
-    <hyperlink ref="R173" r:id="rId111" xr:uid="{13895B37-2D3B-C641-91BD-64E84E5A0352}"/>
-    <hyperlink ref="R172" r:id="rId112" xr:uid="{23BB50CF-42A4-2246-B863-B13CC4325F50}"/>
-    <hyperlink ref="R171" r:id="rId113" xr:uid="{82ADAB3B-AA97-524F-9861-4475E0D52C5C}"/>
-    <hyperlink ref="R170" r:id="rId114" xr:uid="{3914387E-EBF0-994C-B2A2-1D9708644641}"/>
-    <hyperlink ref="R169" r:id="rId115" xr:uid="{7FC8850B-4EC0-6844-977B-3605EA074D6E}"/>
-    <hyperlink ref="R168" r:id="rId116" xr:uid="{E5722F77-408B-AE4B-BBF1-145FB2B1FF69}"/>
-    <hyperlink ref="R167" r:id="rId117" xr:uid="{673C1BE4-63DA-AA4D-BB43-E5E21C901BDD}"/>
-    <hyperlink ref="R166" r:id="rId118" xr:uid="{2592F308-8363-9340-B1DF-4E63BD0A25E9}"/>
-    <hyperlink ref="R165" r:id="rId119" xr:uid="{353B68C5-568D-3941-9ACB-20DA60309FA7}"/>
-    <hyperlink ref="R164" r:id="rId120" xr:uid="{C6B07C0E-F0A0-D443-B1E8-0D5D15BAEC2D}"/>
-    <hyperlink ref="R163" r:id="rId121" xr:uid="{95F2FB24-BBF0-094E-9C29-D64C5160B14A}"/>
-    <hyperlink ref="R162" r:id="rId122" xr:uid="{D4D6B07F-EA6A-6B49-BC2C-6194532E7B5B}"/>
-    <hyperlink ref="R161" r:id="rId123" xr:uid="{A6E2DC2F-61EC-9D47-99B7-7177671EF353}"/>
-    <hyperlink ref="R160" r:id="rId124" xr:uid="{CD543705-12BC-714C-B980-44574BA9CD79}"/>
-    <hyperlink ref="R159" r:id="rId125" xr:uid="{2359E39E-0164-B645-B6E6-788BDA37282B}"/>
-    <hyperlink ref="R158" r:id="rId126" xr:uid="{208ADCB4-F4E6-154B-A8A7-857300C57950}"/>
-    <hyperlink ref="R157" r:id="rId127" xr:uid="{7602DEEC-64A5-814C-BF2F-74BB0BDD3511}"/>
-    <hyperlink ref="R156" r:id="rId128" xr:uid="{E20B60B6-7994-1944-B6D3-3515C5219378}"/>
-    <hyperlink ref="R155" r:id="rId129" xr:uid="{33E73531-D364-FC44-A6E0-A380670E74A7}"/>
-    <hyperlink ref="R154" r:id="rId130" xr:uid="{51B75B3E-7F11-D14D-B00B-BA4CAAC4EE7A}"/>
-    <hyperlink ref="R153" r:id="rId131" xr:uid="{A403488C-6C1E-7F4D-81E2-2B3365B35E4E}"/>
-    <hyperlink ref="R152" r:id="rId132" xr:uid="{695B4F01-7C35-7740-9DFB-2E1905A974D6}"/>
-    <hyperlink ref="R151" r:id="rId133" xr:uid="{9E8FF429-25FB-F040-9DE0-155A0B609045}"/>
-    <hyperlink ref="R150" r:id="rId134" xr:uid="{87216833-E14B-E442-9C10-1FA40F094A8A}"/>
-    <hyperlink ref="R149" r:id="rId135" xr:uid="{598AD27F-5F38-6B44-9C64-06662B95B036}"/>
-    <hyperlink ref="R148" r:id="rId136" xr:uid="{CF3B09C5-3A90-DB47-BEA6-F6DBF93F6325}"/>
-    <hyperlink ref="R147" r:id="rId137" xr:uid="{791610C1-5336-6647-9FF7-EF721A985BFD}"/>
-    <hyperlink ref="R146" r:id="rId138" xr:uid="{BB843351-6519-BD45-B79C-6F2AF4457D7D}"/>
-    <hyperlink ref="R145" r:id="rId139" xr:uid="{5269DBC8-9E9C-2241-9B29-4277846BE62C}"/>
-    <hyperlink ref="R144" r:id="rId140" xr:uid="{74760E0E-4C4F-1443-A35C-40126B272962}"/>
-    <hyperlink ref="R143" r:id="rId141" xr:uid="{E1C64D5F-AB9A-E94B-BA0B-5448183BF7D6}"/>
-    <hyperlink ref="R142" r:id="rId142" xr:uid="{27E0B944-4075-5B41-A571-770F50B34182}"/>
-    <hyperlink ref="R141" r:id="rId143" xr:uid="{0EF02B6F-C4DB-EC46-84CA-8249FD27CFAA}"/>
-    <hyperlink ref="R140" r:id="rId144" xr:uid="{F825ADEB-D359-474E-ADCA-546810F6125A}"/>
-    <hyperlink ref="R139" r:id="rId145" xr:uid="{848D7C47-E99C-FE4F-BF29-F609F464DA2F}"/>
-    <hyperlink ref="R138" r:id="rId146" xr:uid="{01704AE1-2B83-7743-9F0C-B2242AEBE8EA}"/>
-    <hyperlink ref="R137" r:id="rId147" xr:uid="{7A1163D7-0360-8040-878A-E6F45C386FF7}"/>
-    <hyperlink ref="R136" r:id="rId148" xr:uid="{62D0C8EB-83FA-374F-8A31-297CC6881717}"/>
-    <hyperlink ref="R135" r:id="rId149" xr:uid="{A8B8A22A-7DD1-4048-9DAD-6AD1B73E1B86}"/>
-    <hyperlink ref="R134" r:id="rId150" xr:uid="{08297ECD-4984-6A49-A6F7-735B0D43A92F}"/>
-    <hyperlink ref="R133" r:id="rId151" xr:uid="{95BEFCB5-D5F2-6342-93EF-4CC33EA0B882}"/>
-    <hyperlink ref="R132" r:id="rId152" xr:uid="{C606EA4B-18F9-B84F-BD42-4A90727C4860}"/>
-    <hyperlink ref="R131" r:id="rId153" xr:uid="{35D46FB1-BE4C-A842-9FF3-35AD99B50882}"/>
-    <hyperlink ref="R130" r:id="rId154" xr:uid="{DEB0D5D6-77B2-374E-A531-533576633AFD}"/>
-    <hyperlink ref="R129" r:id="rId155" xr:uid="{5360BDBD-2E09-B741-8D77-51E50FB8D235}"/>
-    <hyperlink ref="R128" r:id="rId156" xr:uid="{5AE0B9E1-A625-4E4D-A568-F43867E7A1A1}"/>
-    <hyperlink ref="R127" r:id="rId157" xr:uid="{38361C9E-19CF-3546-9C78-EB9A671F0B11}"/>
-    <hyperlink ref="R126" r:id="rId158" xr:uid="{C9BE10E5-C1E8-5044-9D6C-E310EB3335B5}"/>
-    <hyperlink ref="R125" r:id="rId159" xr:uid="{42184DF9-C346-9D45-AEE6-F3078DECB723}"/>
-    <hyperlink ref="R124" r:id="rId160" xr:uid="{690E3719-59BF-3E45-A762-0061600E4D82}"/>
-    <hyperlink ref="R123" r:id="rId161" xr:uid="{AAEECCA7-9538-0043-B4D5-576E4349FBD0}"/>
-    <hyperlink ref="R122" r:id="rId162" xr:uid="{7E8297C8-92CE-6A4C-AB25-CE16B0F86F38}"/>
-    <hyperlink ref="R121" r:id="rId163" xr:uid="{489DA0A6-DCD2-B74F-93E2-8D82D7CB070D}"/>
-    <hyperlink ref="R120" r:id="rId164" xr:uid="{3A2EDCF6-16DA-FF46-A7BB-EE0A19BD6B0D}"/>
-    <hyperlink ref="R119" r:id="rId165" xr:uid="{6C75E048-D050-1145-8C30-B1E3EE98E910}"/>
-    <hyperlink ref="R118" r:id="rId166" xr:uid="{53C60372-EA31-D642-91E4-841884BD58D5}"/>
-    <hyperlink ref="R117" r:id="rId167" xr:uid="{138B7432-0154-E549-9439-D41E0020152F}"/>
-    <hyperlink ref="R116" r:id="rId168" xr:uid="{49E3F254-75DA-8E4C-843F-49DED351C14A}"/>
-    <hyperlink ref="R115" r:id="rId169" xr:uid="{5DE73932-77AA-9E4F-8E9F-27FF65152F65}"/>
-    <hyperlink ref="R114" r:id="rId170" xr:uid="{9BDCAE44-AA48-4A41-9783-C091773DBEB3}"/>
-    <hyperlink ref="R113" r:id="rId171" xr:uid="{B016E93D-3D7B-2F49-8DDD-99722B123554}"/>
-    <hyperlink ref="R112" r:id="rId172" xr:uid="{0AE302DA-A07B-F046-AF28-AB36B9694682}"/>
-    <hyperlink ref="R111" r:id="rId173" xr:uid="{5DD321F6-CB40-394A-AACC-C86AAE4CB7CB}"/>
-    <hyperlink ref="R110" r:id="rId174" xr:uid="{86D53C5C-2030-E943-9012-14A86847AA12}"/>
-    <hyperlink ref="R109" r:id="rId175" xr:uid="{58A35E10-3C75-6C4C-A88C-30700A636C69}"/>
-    <hyperlink ref="R108" r:id="rId176" xr:uid="{861A14ED-0170-624F-9775-FF3E6B7CCEE6}"/>
-    <hyperlink ref="R107" r:id="rId177" xr:uid="{F637F51F-C125-C44C-9343-45775D0EB61C}"/>
-    <hyperlink ref="R106" r:id="rId178" xr:uid="{94D6E621-3D87-674C-8542-B7116E34E13D}"/>
-    <hyperlink ref="R105" r:id="rId179" xr:uid="{27258CB8-A12B-6847-ABF1-E847D7C662FC}"/>
-    <hyperlink ref="R104" r:id="rId180" xr:uid="{DCF0B2C9-AD64-C240-8CDA-79A95B886638}"/>
-    <hyperlink ref="R103" r:id="rId181" xr:uid="{47C2E168-2D1F-5140-B283-437D1CC5D11E}"/>
-    <hyperlink ref="R102" r:id="rId182" xr:uid="{E1C24718-4C54-8C44-AFD4-2B023D6072A1}"/>
-    <hyperlink ref="R101" r:id="rId183" xr:uid="{88AAB544-EF77-6C4C-999F-A62189AA3507}"/>
-    <hyperlink ref="R100" r:id="rId184" xr:uid="{553E5C99-147A-444B-BD67-9B5AB355EA57}"/>
-    <hyperlink ref="R99" r:id="rId185" xr:uid="{8FE94A7E-1435-8C49-AEE0-120C31CC856A}"/>
-    <hyperlink ref="R98" r:id="rId186" xr:uid="{00D173F7-5B1B-3B41-94E1-159D9EA0D70D}"/>
-    <hyperlink ref="R97" r:id="rId187" xr:uid="{5A86AE12-EA6E-EC42-B5B8-A22CB3D199F1}"/>
-    <hyperlink ref="R96" r:id="rId188" xr:uid="{513C9663-B7AF-3540-9FDF-B3921F560AA3}"/>
-    <hyperlink ref="R95" r:id="rId189" xr:uid="{EACA8133-E481-A149-88B8-46496C10E98A}"/>
-    <hyperlink ref="R94" r:id="rId190" xr:uid="{EF6FD3A2-A1D4-5A46-89CF-4BC7C0063818}"/>
-    <hyperlink ref="R93" r:id="rId191" xr:uid="{6D0B5BF6-2394-5E4E-97BE-B8FDDC60A127}"/>
-    <hyperlink ref="R92" r:id="rId192" xr:uid="{806620CF-BA04-6F42-9141-80F0DC879D27}"/>
-    <hyperlink ref="R91" r:id="rId193" xr:uid="{36ED2CC3-6BCB-1842-AA43-2168EDB69826}"/>
-    <hyperlink ref="R90" r:id="rId194" xr:uid="{64934895-32D0-B342-849C-D8DCE6181351}"/>
-    <hyperlink ref="R89" r:id="rId195" xr:uid="{B8C928BD-20E1-5A4E-9463-41C9C3F578AB}"/>
-    <hyperlink ref="R88" r:id="rId196" xr:uid="{5D92C875-3869-C742-BFE7-EF95416A8CE1}"/>
-    <hyperlink ref="R87" r:id="rId197" xr:uid="{71662E55-A7F9-6243-95DB-0B3E7F2CA92A}"/>
-    <hyperlink ref="R86" r:id="rId198" xr:uid="{1924861E-EB21-5247-B984-B10B80482F65}"/>
-    <hyperlink ref="R85" r:id="rId199" xr:uid="{0036C767-46EF-6B45-9E21-A97BBE4820A1}"/>
-    <hyperlink ref="R84" r:id="rId200" xr:uid="{9654A737-D437-1E4C-8BC3-341DCE23D92C}"/>
-    <hyperlink ref="R83" r:id="rId201" xr:uid="{529CC930-7BA7-7741-8FCA-CCCBFD09321E}"/>
-    <hyperlink ref="R82" r:id="rId202" xr:uid="{287B138B-F47D-8D48-AF6F-F518FD799778}"/>
-    <hyperlink ref="R81" r:id="rId203" xr:uid="{C5B72238-4C07-6942-8CB5-DA314EB77272}"/>
-    <hyperlink ref="R80" r:id="rId204" xr:uid="{6EB87FCC-26D6-1743-A09B-CD68E813F0EB}"/>
-    <hyperlink ref="R79" r:id="rId205" xr:uid="{6635E8CB-48E4-114B-B757-A76557279986}"/>
-    <hyperlink ref="R78" r:id="rId206" xr:uid="{1C908C23-A809-9C4C-B5DC-F4C352AAF192}"/>
-    <hyperlink ref="R77" r:id="rId207" xr:uid="{4B5FC6D2-B0BB-344D-950D-D1CA19B02D9F}"/>
-    <hyperlink ref="R76" r:id="rId208" xr:uid="{A0DC5909-81A7-CE46-ADFF-288E518CBE58}"/>
-    <hyperlink ref="R75" r:id="rId209" xr:uid="{D2C205C0-73CC-1948-BE88-CCD60726D692}"/>
-    <hyperlink ref="R74" r:id="rId210" xr:uid="{3F9C04FD-B051-D54C-A6FA-F41FAEA34254}"/>
-    <hyperlink ref="R73" r:id="rId211" xr:uid="{668431A4-BEFD-8D4D-863C-788DD2E971F0}"/>
-    <hyperlink ref="R72" r:id="rId212" xr:uid="{670DAD1B-9532-1949-953D-4C53A2A46591}"/>
-    <hyperlink ref="R71" r:id="rId213" xr:uid="{8A392E8B-33F0-6143-AE1B-8218EE18C022}"/>
-    <hyperlink ref="R70" r:id="rId214" xr:uid="{EBEB2189-AA77-5740-AAAD-4AB6018C26AE}"/>
-    <hyperlink ref="R69" r:id="rId215" xr:uid="{803ABC13-E9A4-374B-9093-FFFDD3086B31}"/>
-    <hyperlink ref="R68" r:id="rId216" xr:uid="{1A2D5978-4F03-8448-A623-8495723C7A4E}"/>
-    <hyperlink ref="R67" r:id="rId217" xr:uid="{BC669361-EAD6-C94D-BDCD-DD2E8B8C8B67}"/>
-    <hyperlink ref="R66" r:id="rId218" xr:uid="{47569390-B9B5-9145-8548-6D6B824CB580}"/>
-    <hyperlink ref="R65" r:id="rId219" xr:uid="{FC84712A-4586-D749-BA7C-D25879F2E4C5}"/>
-    <hyperlink ref="R64" r:id="rId220" xr:uid="{FF9713F0-3609-BB44-93AE-C28050DBDDAE}"/>
-    <hyperlink ref="R63" r:id="rId221" xr:uid="{96B7CA1A-1CB7-C944-9FF6-D4641F8317D0}"/>
-    <hyperlink ref="R62" r:id="rId222" xr:uid="{A202C270-2EDC-3745-AAF5-9AB6CFF8F6C2}"/>
-    <hyperlink ref="R61" r:id="rId223" xr:uid="{F16777DB-9D03-1B43-A16F-9CABEDE33EC1}"/>
-    <hyperlink ref="R60" r:id="rId224" xr:uid="{B2911B73-8F44-3B4E-B45B-A11D1582D7D0}"/>
-    <hyperlink ref="R59" r:id="rId225" xr:uid="{EBC3D8AC-BCA6-D144-8EE8-7FC754EA0FE3}"/>
-    <hyperlink ref="R58" r:id="rId226" xr:uid="{B53E5A9B-A164-D043-A5FB-5FA55FD28917}"/>
-    <hyperlink ref="R57" r:id="rId227" xr:uid="{86B0FBD4-092C-0B4D-9A8C-C1A7C8BB39D9}"/>
-    <hyperlink ref="R56" r:id="rId228" xr:uid="{1C5EFA58-219B-174C-B571-7652FF166DD0}"/>
-    <hyperlink ref="R55" r:id="rId229" xr:uid="{6B734EE8-D0C6-594F-84C1-E2456700796C}"/>
-    <hyperlink ref="R54" r:id="rId230" xr:uid="{F7CACC78-722A-3247-A6BF-B9875C36F36D}"/>
-    <hyperlink ref="R53" r:id="rId231" xr:uid="{E5B36CBA-48B7-F740-9B1F-D7B770CEF45B}"/>
-    <hyperlink ref="R52" r:id="rId232" xr:uid="{3C6B423D-80BD-104E-9C44-9582DCB35DAB}"/>
-    <hyperlink ref="R51" r:id="rId233" xr:uid="{C6A2AA57-1F1A-7E4C-BDED-AFED1A88BA7D}"/>
-    <hyperlink ref="R50" r:id="rId234" xr:uid="{65722F46-1CF9-6749-B359-F0E5E2A0D7B1}"/>
-    <hyperlink ref="R49" r:id="rId235" xr:uid="{F129EA32-AB1B-1A47-8D1F-F0746BE5D466}"/>
-    <hyperlink ref="R48" r:id="rId236" xr:uid="{E3B15CF4-09EC-1D4D-9E62-79DDDA8942B7}"/>
-    <hyperlink ref="R47" r:id="rId237" xr:uid="{861C0AA2-B4FC-A142-8CEF-0249EA8F86FE}"/>
-    <hyperlink ref="R46" r:id="rId238" xr:uid="{3BF929F7-8EDF-CB48-B9B8-62753E9FA6EB}"/>
-    <hyperlink ref="R45" r:id="rId239" xr:uid="{40F44978-FDAF-924B-AE4B-1A91B100BA39}"/>
-    <hyperlink ref="R44" r:id="rId240" xr:uid="{8C676B2B-7883-6A46-B182-E70615098183}"/>
-    <hyperlink ref="R43" r:id="rId241" xr:uid="{E6B36536-E539-CA4A-B403-C88F5062BAE3}"/>
-    <hyperlink ref="R42" r:id="rId242" xr:uid="{9C94FC1E-6992-CD42-8D42-490B548CFC94}"/>
-    <hyperlink ref="R41" r:id="rId243" xr:uid="{220A65C2-4644-574F-B99C-7F46AF248034}"/>
-    <hyperlink ref="R40" r:id="rId244" xr:uid="{89AFA01C-49FA-594F-9BA8-06988DA363B1}"/>
-    <hyperlink ref="R39" r:id="rId245" xr:uid="{18A19F7C-D0C8-7B4E-A413-4D6BACCB24F9}"/>
-    <hyperlink ref="R38" r:id="rId246" xr:uid="{252C514F-52BD-9941-A225-15C2218F1A26}"/>
-    <hyperlink ref="R37" r:id="rId247" xr:uid="{73D5F898-F7C9-5543-9F28-49438706A4F4}"/>
-    <hyperlink ref="R36" r:id="rId248" xr:uid="{57E02099-9983-7146-96B1-DDCA63F3651E}"/>
-    <hyperlink ref="R35" r:id="rId249" xr:uid="{FFD7DA86-B760-4A47-8395-DEB807B24AFE}"/>
-    <hyperlink ref="R34" r:id="rId250" xr:uid="{58ABF4EB-A01C-2745-83E0-2CD79959AE7B}"/>
-    <hyperlink ref="R33" r:id="rId251" xr:uid="{B02427A6-B290-444E-B6FC-436A0FB99CE5}"/>
-    <hyperlink ref="R32" r:id="rId252" xr:uid="{E57F7264-2FED-1649-BC03-AC5EF67B4A10}"/>
-    <hyperlink ref="R30" r:id="rId253" xr:uid="{2FB765AD-A7FC-1F4A-9218-37A432BD84D1}"/>
-    <hyperlink ref="R29" r:id="rId254" xr:uid="{0A82BBFF-8B81-0D45-B8D1-7BD40413E2BB}"/>
-    <hyperlink ref="R28" r:id="rId255" xr:uid="{C3BDF04F-554A-4346-9CD3-47DA6A72D3FA}"/>
-    <hyperlink ref="R31" r:id="rId256" xr:uid="{739FB021-A538-1E48-8510-155CF1514637}"/>
+    <hyperlink ref="S276" r:id="rId8" xr:uid="{9971D6EB-FACB-344E-AAD8-B19802DEFD56}"/>
+    <hyperlink ref="S275" r:id="rId9" xr:uid="{2E3FEC3C-BDD7-FE44-8B7A-404F42C67ED3}"/>
+    <hyperlink ref="S274" r:id="rId10" xr:uid="{4AE9DB29-320B-A149-8AFD-B9C8530E3CAA}"/>
+    <hyperlink ref="S273" r:id="rId11" xr:uid="{72897982-F3B2-3E41-9CD5-F818479A46CD}"/>
+    <hyperlink ref="S272" r:id="rId12" xr:uid="{741B1648-8A90-7047-9348-CCBB700C7BBD}"/>
+    <hyperlink ref="S271" r:id="rId13" xr:uid="{CE9EB1ED-06B7-5843-84D8-7AF21B333483}"/>
+    <hyperlink ref="S270" r:id="rId14" xr:uid="{30C275B9-6874-1348-BDBF-B51B51D2DDAE}"/>
+    <hyperlink ref="S269" r:id="rId15" xr:uid="{2BEBFA59-CF77-7E46-BDD5-8A990EBD569D}"/>
+    <hyperlink ref="S268" r:id="rId16" xr:uid="{25E5C46A-F8C0-274C-BF8F-D9AA8262956F}"/>
+    <hyperlink ref="S267" r:id="rId17" xr:uid="{B602D0BC-A059-E84C-A613-36084A224A76}"/>
+    <hyperlink ref="S266" r:id="rId18" xr:uid="{A7D71EC6-E2D0-B047-9B0D-CFE3D232E6D6}"/>
+    <hyperlink ref="S265" r:id="rId19" xr:uid="{A31FFEFA-8757-6145-B00B-A5CB7658DB19}"/>
+    <hyperlink ref="S264" r:id="rId20" xr:uid="{4DAF5833-0453-D44E-9287-69A4C3DE210D}"/>
+    <hyperlink ref="S263" r:id="rId21" xr:uid="{3393024B-5C59-B044-8B08-C86F7D869F3E}"/>
+    <hyperlink ref="S262" r:id="rId22" xr:uid="{106B04F5-FB77-FB4E-B065-C15D2213F39F}"/>
+    <hyperlink ref="S261" r:id="rId23" xr:uid="{ACC42C00-B979-354C-B7B5-0EF7893A049D}"/>
+    <hyperlink ref="S260" r:id="rId24" xr:uid="{E57438B7-0FA0-A84F-A466-DAE24AD5C0F5}"/>
+    <hyperlink ref="S259" r:id="rId25" xr:uid="{35FA2D14-FDEB-EA4F-A0CC-EC48C3BCAC73}"/>
+    <hyperlink ref="S258" r:id="rId26" xr:uid="{1BE0018A-DE89-B245-9AB9-1BAE78956340}"/>
+    <hyperlink ref="S257" r:id="rId27" xr:uid="{8BB8FA98-46EE-D741-B15A-08CB94FB23C8}"/>
+    <hyperlink ref="S256" r:id="rId28" xr:uid="{A32AD65E-14E0-5842-B43A-0158E67ABEC8}"/>
+    <hyperlink ref="S255" r:id="rId29" xr:uid="{2050CB20-8BCE-7F4D-B5A5-0FE983E56A55}"/>
+    <hyperlink ref="S254" r:id="rId30" xr:uid="{D1680B67-D6F1-FF4D-AA5C-48FEA916105F}"/>
+    <hyperlink ref="S253" r:id="rId31" xr:uid="{795EA1CD-818F-F949-B432-955A06E5933F}"/>
+    <hyperlink ref="S252" r:id="rId32" xr:uid="{72CBCDF7-E489-9245-A4E3-20FEB0995F4B}"/>
+    <hyperlink ref="S251" r:id="rId33" xr:uid="{BF5D2C19-7D8D-8342-8DC8-2B9F90B13E72}"/>
+    <hyperlink ref="S250" r:id="rId34" xr:uid="{B428EFD5-9A07-2249-BDC2-5C5E04D2FEE9}"/>
+    <hyperlink ref="S249" r:id="rId35" xr:uid="{2AF4564D-7C9C-2846-9C5B-17FAE93F2CB2}"/>
+    <hyperlink ref="S248" r:id="rId36" xr:uid="{453CEBA2-623E-1942-A383-9E6F89DB0ADB}"/>
+    <hyperlink ref="S247" r:id="rId37" xr:uid="{3E75DBCA-973F-E043-8550-38CC48FD41A1}"/>
+    <hyperlink ref="S246" r:id="rId38" xr:uid="{EB3B8ED7-98AD-4C46-9FA3-7E61A49918CF}"/>
+    <hyperlink ref="S245" r:id="rId39" xr:uid="{C2F06B68-2E0A-0C4A-940A-8DE76FA4438B}"/>
+    <hyperlink ref="S244" r:id="rId40" xr:uid="{AD54B9D5-541A-0D45-831B-B433993C9F73}"/>
+    <hyperlink ref="S243" r:id="rId41" xr:uid="{61F91488-3254-9F47-9872-462E153E6FF4}"/>
+    <hyperlink ref="S242" r:id="rId42" xr:uid="{0BD77BFF-FFCD-7E41-A4F8-FF10FA310498}"/>
+    <hyperlink ref="S241" r:id="rId43" xr:uid="{023A12BD-E71D-9C4D-930C-EFC5BD24AF68}"/>
+    <hyperlink ref="S240" r:id="rId44" xr:uid="{4972092E-AFF4-1B46-8AC6-F0B8C19FB694}"/>
+    <hyperlink ref="S239" r:id="rId45" xr:uid="{6DED1FBB-2B72-EA4B-80CD-FAA15BA2629A}"/>
+    <hyperlink ref="S238" r:id="rId46" xr:uid="{9EFEF11D-DDEF-ED4C-BC37-0EE4F9CFC092}"/>
+    <hyperlink ref="S237" r:id="rId47" xr:uid="{65DF87F4-B9D9-A24A-96AC-8C8007B959C1}"/>
+    <hyperlink ref="S236" r:id="rId48" xr:uid="{2731A87A-B94D-2340-B514-274D055C854F}"/>
+    <hyperlink ref="S235" r:id="rId49" xr:uid="{7A22D82D-5895-B94D-96A2-3FB9F53D547B}"/>
+    <hyperlink ref="S234" r:id="rId50" xr:uid="{98C32F19-E2D9-2A43-946E-21167E29EE8A}"/>
+    <hyperlink ref="S233" r:id="rId51" xr:uid="{53EA2C99-2E7F-024B-AFB1-82EB5AEAC04F}"/>
+    <hyperlink ref="S232" r:id="rId52" xr:uid="{3B541DE0-F185-3A46-905E-ABA752FD4D02}"/>
+    <hyperlink ref="S231" r:id="rId53" xr:uid="{6A5C4828-A036-514B-A896-2A180309265E}"/>
+    <hyperlink ref="S230" r:id="rId54" xr:uid="{CCCC086D-3A97-D14E-AFAC-4C3FBB5B5541}"/>
+    <hyperlink ref="S229" r:id="rId55" xr:uid="{63C89623-2A5F-B940-9F4E-05B33093C01D}"/>
+    <hyperlink ref="S228" r:id="rId56" xr:uid="{22757ABE-C417-5149-865C-04644FDD8983}"/>
+    <hyperlink ref="S227" r:id="rId57" xr:uid="{C536FAE5-CFE0-9549-B5CB-2EE8929171CF}"/>
+    <hyperlink ref="S226" r:id="rId58" xr:uid="{B5848134-0EFA-7049-9836-71149051CCB2}"/>
+    <hyperlink ref="S225" r:id="rId59" xr:uid="{A61F30B4-4BB6-CF43-9934-ADD3A68AEFE0}"/>
+    <hyperlink ref="S224" r:id="rId60" xr:uid="{4F8731C5-0255-1C48-8AC3-26798AADDD8C}"/>
+    <hyperlink ref="S223" r:id="rId61" xr:uid="{72096D7A-2990-954A-B6C5-F24A215B09DA}"/>
+    <hyperlink ref="S222" r:id="rId62" xr:uid="{D82DD6D4-71ED-8244-873F-A69A8F0700FC}"/>
+    <hyperlink ref="S221" r:id="rId63" xr:uid="{6A0EAC28-B6F5-7B4C-843A-039569B9D960}"/>
+    <hyperlink ref="S220" r:id="rId64" xr:uid="{90CB8DF1-61EF-464F-9681-16AC83FED15F}"/>
+    <hyperlink ref="S219" r:id="rId65" xr:uid="{C4175C3D-7EA3-664F-A6B3-B745D8656B8D}"/>
+    <hyperlink ref="S218" r:id="rId66" xr:uid="{57E0517B-B5C7-0E49-9F4C-B16D41AE627B}"/>
+    <hyperlink ref="S217" r:id="rId67" xr:uid="{15BFA554-CB3F-C241-AE1C-5B58EE037854}"/>
+    <hyperlink ref="S216" r:id="rId68" xr:uid="{87D0BD0C-76C8-F245-8706-1F5500BAF271}"/>
+    <hyperlink ref="S215" r:id="rId69" xr:uid="{A71FA518-2C45-CD4E-AC95-DFC7740B3412}"/>
+    <hyperlink ref="S214" r:id="rId70" xr:uid="{FB2267EA-187F-0B4D-A1EA-0CE8BB05FC7A}"/>
+    <hyperlink ref="S213" r:id="rId71" xr:uid="{218C661F-8A9B-EC4E-9484-7C76D192698B}"/>
+    <hyperlink ref="S212" r:id="rId72" xr:uid="{AD5B807A-770A-454C-8335-46A197B54FD0}"/>
+    <hyperlink ref="S211" r:id="rId73" xr:uid="{05CFE237-7D57-5F47-B24A-85E2B1CCC689}"/>
+    <hyperlink ref="S210" r:id="rId74" xr:uid="{0DFCD095-0F1B-7D43-AE43-1046A58FDBF9}"/>
+    <hyperlink ref="S209" r:id="rId75" xr:uid="{2348EB4F-937D-8B4B-9670-B73746AAA491}"/>
+    <hyperlink ref="S208" r:id="rId76" xr:uid="{52914618-6B9C-3A4F-B97F-9D689404F284}"/>
+    <hyperlink ref="S207" r:id="rId77" xr:uid="{E84AA369-66E6-FE43-8105-B42B6F97BFA5}"/>
+    <hyperlink ref="S206" r:id="rId78" xr:uid="{3E8267C4-163F-EA4D-9C56-63DD8A822EBA}"/>
+    <hyperlink ref="S205" r:id="rId79" xr:uid="{6D53EC5B-7792-C541-B076-3BB247332BED}"/>
+    <hyperlink ref="S204" r:id="rId80" xr:uid="{B064BD1F-DB8E-4C46-807A-042D6C232DF9}"/>
+    <hyperlink ref="S203" r:id="rId81" xr:uid="{29C98877-A954-474F-A2B1-95D2E5D7BC41}"/>
+    <hyperlink ref="S202" r:id="rId82" xr:uid="{0358B018-A627-CC43-909C-F88E6883F078}"/>
+    <hyperlink ref="S201" r:id="rId83" xr:uid="{D09BE4AE-B2A1-B440-BB5B-7BBB6A0C41CA}"/>
+    <hyperlink ref="S200" r:id="rId84" xr:uid="{A1A69F21-F25D-B24B-BBE0-60486DAE3520}"/>
+    <hyperlink ref="S199" r:id="rId85" xr:uid="{7A344E78-4EC9-FA45-8F09-10DCE7F24155}"/>
+    <hyperlink ref="S198" r:id="rId86" xr:uid="{7138F7C1-B92E-604E-81A8-C8644306CF8E}"/>
+    <hyperlink ref="S197" r:id="rId87" xr:uid="{B1882847-0536-404C-89C3-707E1C69CBB2}"/>
+    <hyperlink ref="S196" r:id="rId88" xr:uid="{48A4A213-18C1-3D42-BA58-0B33871CC90E}"/>
+    <hyperlink ref="S195" r:id="rId89" xr:uid="{E925F182-7FD2-894D-8A2B-2A8D71B9E35F}"/>
+    <hyperlink ref="S194" r:id="rId90" xr:uid="{F3938CD1-EEF8-F741-9280-EC9A10337FE5}"/>
+    <hyperlink ref="S193" r:id="rId91" xr:uid="{B17A0719-3EA0-1A4F-9223-C2CCB2F198DE}"/>
+    <hyperlink ref="S192" r:id="rId92" xr:uid="{E9DD0130-5742-9047-9797-8AE757E12B05}"/>
+    <hyperlink ref="S191" r:id="rId93" xr:uid="{0E79D6E0-442C-364F-9ED7-74087AF711AD}"/>
+    <hyperlink ref="S190" r:id="rId94" xr:uid="{3665FE00-68C7-FC46-8CE5-0843C5821B58}"/>
+    <hyperlink ref="S189" r:id="rId95" xr:uid="{27BDA95B-5276-1946-8DC6-F09C79078ED3}"/>
+    <hyperlink ref="S188" r:id="rId96" xr:uid="{F8C1E152-D8CE-A141-8337-257B0EAC6613}"/>
+    <hyperlink ref="S187" r:id="rId97" xr:uid="{4C826EB5-EDD9-1C4B-B44C-B00952DD343C}"/>
+    <hyperlink ref="S186" r:id="rId98" xr:uid="{CD750008-01A7-ED45-AB36-849FD855ED70}"/>
+    <hyperlink ref="S185" r:id="rId99" xr:uid="{EA81C4D5-F302-6F4E-9FE2-EA5AEECA8AA4}"/>
+    <hyperlink ref="S184" r:id="rId100" xr:uid="{EE144E98-781C-2246-9721-B1C7C068786B}"/>
+    <hyperlink ref="S183" r:id="rId101" xr:uid="{C5122B23-DE10-AD41-BAFE-90F0989F78E5}"/>
+    <hyperlink ref="S182" r:id="rId102" xr:uid="{626F4917-CFC8-5A4D-83C0-A25CFF8302C6}"/>
+    <hyperlink ref="S181" r:id="rId103" xr:uid="{D21C9FD7-988D-C340-9EEB-8E5EAA59E55D}"/>
+    <hyperlink ref="S180" r:id="rId104" xr:uid="{824A2F7C-FF8C-394F-A8E5-4DAF5EE5AE67}"/>
+    <hyperlink ref="S179" r:id="rId105" xr:uid="{40F2FBAF-0F87-484A-9BE4-FEC101090AAE}"/>
+    <hyperlink ref="S178" r:id="rId106" xr:uid="{7E1C125E-8AA5-1A41-AA13-2D1657938A4A}"/>
+    <hyperlink ref="S177" r:id="rId107" xr:uid="{B72C3DEE-3F37-C642-85C3-12543B1FEAD3}"/>
+    <hyperlink ref="S176" r:id="rId108" xr:uid="{32E12485-C10B-D247-9D76-D7006BFBA689}"/>
+    <hyperlink ref="S175" r:id="rId109" xr:uid="{D5568112-6250-F44E-8D44-2292063B02D8}"/>
+    <hyperlink ref="S174" r:id="rId110" xr:uid="{3F302AAA-2B7C-A84B-A752-75EE649623E5}"/>
+    <hyperlink ref="S173" r:id="rId111" xr:uid="{13895B37-2D3B-C641-91BD-64E84E5A0352}"/>
+    <hyperlink ref="S172" r:id="rId112" xr:uid="{23BB50CF-42A4-2246-B863-B13CC4325F50}"/>
+    <hyperlink ref="S171" r:id="rId113" xr:uid="{82ADAB3B-AA97-524F-9861-4475E0D52C5C}"/>
+    <hyperlink ref="S170" r:id="rId114" xr:uid="{3914387E-EBF0-994C-B2A2-1D9708644641}"/>
+    <hyperlink ref="S169" r:id="rId115" xr:uid="{7FC8850B-4EC0-6844-977B-3605EA074D6E}"/>
+    <hyperlink ref="S168" r:id="rId116" xr:uid="{E5722F77-408B-AE4B-BBF1-145FB2B1FF69}"/>
+    <hyperlink ref="S167" r:id="rId117" xr:uid="{673C1BE4-63DA-AA4D-BB43-E5E21C901BDD}"/>
+    <hyperlink ref="S166" r:id="rId118" xr:uid="{2592F308-8363-9340-B1DF-4E63BD0A25E9}"/>
+    <hyperlink ref="S165" r:id="rId119" xr:uid="{353B68C5-568D-3941-9ACB-20DA60309FA7}"/>
+    <hyperlink ref="S164" r:id="rId120" xr:uid="{C6B07C0E-F0A0-D443-B1E8-0D5D15BAEC2D}"/>
+    <hyperlink ref="S163" r:id="rId121" xr:uid="{95F2FB24-BBF0-094E-9C29-D64C5160B14A}"/>
+    <hyperlink ref="S162" r:id="rId122" xr:uid="{D4D6B07F-EA6A-6B49-BC2C-6194532E7B5B}"/>
+    <hyperlink ref="S161" r:id="rId123" xr:uid="{A6E2DC2F-61EC-9D47-99B7-7177671EF353}"/>
+    <hyperlink ref="S160" r:id="rId124" xr:uid="{CD543705-12BC-714C-B980-44574BA9CD79}"/>
+    <hyperlink ref="S159" r:id="rId125" xr:uid="{2359E39E-0164-B645-B6E6-788BDA37282B}"/>
+    <hyperlink ref="S158" r:id="rId126" xr:uid="{208ADCB4-F4E6-154B-A8A7-857300C57950}"/>
+    <hyperlink ref="S157" r:id="rId127" xr:uid="{7602DEEC-64A5-814C-BF2F-74BB0BDD3511}"/>
+    <hyperlink ref="S156" r:id="rId128" xr:uid="{E20B60B6-7994-1944-B6D3-3515C5219378}"/>
+    <hyperlink ref="S155" r:id="rId129" xr:uid="{33E73531-D364-FC44-A6E0-A380670E74A7}"/>
+    <hyperlink ref="S154" r:id="rId130" xr:uid="{51B75B3E-7F11-D14D-B00B-BA4CAAC4EE7A}"/>
+    <hyperlink ref="S153" r:id="rId131" xr:uid="{A403488C-6C1E-7F4D-81E2-2B3365B35E4E}"/>
+    <hyperlink ref="S152" r:id="rId132" xr:uid="{695B4F01-7C35-7740-9DFB-2E1905A974D6}"/>
+    <hyperlink ref="S151" r:id="rId133" xr:uid="{9E8FF429-25FB-F040-9DE0-155A0B609045}"/>
+    <hyperlink ref="S150" r:id="rId134" xr:uid="{87216833-E14B-E442-9C10-1FA40F094A8A}"/>
+    <hyperlink ref="S149" r:id="rId135" xr:uid="{598AD27F-5F38-6B44-9C64-06662B95B036}"/>
+    <hyperlink ref="S148" r:id="rId136" xr:uid="{CF3B09C5-3A90-DB47-BEA6-F6DBF93F6325}"/>
+    <hyperlink ref="S147" r:id="rId137" xr:uid="{791610C1-5336-6647-9FF7-EF721A985BFD}"/>
+    <hyperlink ref="S146" r:id="rId138" xr:uid="{BB843351-6519-BD45-B79C-6F2AF4457D7D}"/>
+    <hyperlink ref="S145" r:id="rId139" xr:uid="{5269DBC8-9E9C-2241-9B29-4277846BE62C}"/>
+    <hyperlink ref="S144" r:id="rId140" xr:uid="{74760E0E-4C4F-1443-A35C-40126B272962}"/>
+    <hyperlink ref="S143" r:id="rId141" xr:uid="{E1C64D5F-AB9A-E94B-BA0B-5448183BF7D6}"/>
+    <hyperlink ref="S142" r:id="rId142" xr:uid="{27E0B944-4075-5B41-A571-770F50B34182}"/>
+    <hyperlink ref="S141" r:id="rId143" xr:uid="{0EF02B6F-C4DB-EC46-84CA-8249FD27CFAA}"/>
+    <hyperlink ref="S140" r:id="rId144" xr:uid="{F825ADEB-D359-474E-ADCA-546810F6125A}"/>
+    <hyperlink ref="S139" r:id="rId145" xr:uid="{848D7C47-E99C-FE4F-BF29-F609F464DA2F}"/>
+    <hyperlink ref="S138" r:id="rId146" xr:uid="{01704AE1-2B83-7743-9F0C-B2242AEBE8EA}"/>
+    <hyperlink ref="S137" r:id="rId147" xr:uid="{7A1163D7-0360-8040-878A-E6F45C386FF7}"/>
+    <hyperlink ref="S136" r:id="rId148" xr:uid="{62D0C8EB-83FA-374F-8A31-297CC6881717}"/>
+    <hyperlink ref="S135" r:id="rId149" xr:uid="{A8B8A22A-7DD1-4048-9DAD-6AD1B73E1B86}"/>
+    <hyperlink ref="S134" r:id="rId150" xr:uid="{08297ECD-4984-6A49-A6F7-735B0D43A92F}"/>
+    <hyperlink ref="S133" r:id="rId151" xr:uid="{95BEFCB5-D5F2-6342-93EF-4CC33EA0B882}"/>
+    <hyperlink ref="S132" r:id="rId152" xr:uid="{C606EA4B-18F9-B84F-BD42-4A90727C4860}"/>
+    <hyperlink ref="S131" r:id="rId153" xr:uid="{35D46FB1-BE4C-A842-9FF3-35AD99B50882}"/>
+    <hyperlink ref="S130" r:id="rId154" xr:uid="{DEB0D5D6-77B2-374E-A531-533576633AFD}"/>
+    <hyperlink ref="S129" r:id="rId155" xr:uid="{5360BDBD-2E09-B741-8D77-51E50FB8D235}"/>
+    <hyperlink ref="S128" r:id="rId156" xr:uid="{5AE0B9E1-A625-4E4D-A568-F43867E7A1A1}"/>
+    <hyperlink ref="S127" r:id="rId157" xr:uid="{38361C9E-19CF-3546-9C78-EB9A671F0B11}"/>
+    <hyperlink ref="S126" r:id="rId158" xr:uid="{C9BE10E5-C1E8-5044-9D6C-E310EB3335B5}"/>
+    <hyperlink ref="S125" r:id="rId159" xr:uid="{42184DF9-C346-9D45-AEE6-F3078DECB723}"/>
+    <hyperlink ref="S124" r:id="rId160" xr:uid="{690E3719-59BF-3E45-A762-0061600E4D82}"/>
+    <hyperlink ref="S123" r:id="rId161" xr:uid="{AAEECCA7-9538-0043-B4D5-576E4349FBD0}"/>
+    <hyperlink ref="S122" r:id="rId162" xr:uid="{7E8297C8-92CE-6A4C-AB25-CE16B0F86F38}"/>
+    <hyperlink ref="S121" r:id="rId163" xr:uid="{489DA0A6-DCD2-B74F-93E2-8D82D7CB070D}"/>
+    <hyperlink ref="S120" r:id="rId164" xr:uid="{3A2EDCF6-16DA-FF46-A7BB-EE0A19BD6B0D}"/>
+    <hyperlink ref="S119" r:id="rId165" xr:uid="{6C75E048-D050-1145-8C30-B1E3EE98E910}"/>
+    <hyperlink ref="S118" r:id="rId166" xr:uid="{53C60372-EA31-D642-91E4-841884BD58D5}"/>
+    <hyperlink ref="S117" r:id="rId167" xr:uid="{138B7432-0154-E549-9439-D41E0020152F}"/>
+    <hyperlink ref="S116" r:id="rId168" xr:uid="{49E3F254-75DA-8E4C-843F-49DED351C14A}"/>
+    <hyperlink ref="S115" r:id="rId169" xr:uid="{5DE73932-77AA-9E4F-8E9F-27FF65152F65}"/>
+    <hyperlink ref="S114" r:id="rId170" xr:uid="{9BDCAE44-AA48-4A41-9783-C091773DBEB3}"/>
+    <hyperlink ref="S113" r:id="rId171" xr:uid="{B016E93D-3D7B-2F49-8DDD-99722B123554}"/>
+    <hyperlink ref="S112" r:id="rId172" xr:uid="{0AE302DA-A07B-F046-AF28-AB36B9694682}"/>
+    <hyperlink ref="S111" r:id="rId173" xr:uid="{5DD321F6-CB40-394A-AACC-C86AAE4CB7CB}"/>
+    <hyperlink ref="S110" r:id="rId174" xr:uid="{86D53C5C-2030-E943-9012-14A86847AA12}"/>
+    <hyperlink ref="S109" r:id="rId175" xr:uid="{58A35E10-3C75-6C4C-A88C-30700A636C69}"/>
+    <hyperlink ref="S108" r:id="rId176" xr:uid="{861A14ED-0170-624F-9775-FF3E6B7CCEE6}"/>
+    <hyperlink ref="S107" r:id="rId177" xr:uid="{F637F51F-C125-C44C-9343-45775D0EB61C}"/>
+    <hyperlink ref="S106" r:id="rId178" xr:uid="{94D6E621-3D87-674C-8542-B7116E34E13D}"/>
+    <hyperlink ref="S105" r:id="rId179" xr:uid="{27258CB8-A12B-6847-ABF1-E847D7C662FC}"/>
+    <hyperlink ref="S104" r:id="rId180" xr:uid="{DCF0B2C9-AD64-C240-8CDA-79A95B886638}"/>
+    <hyperlink ref="S103" r:id="rId181" xr:uid="{47C2E168-2D1F-5140-B283-437D1CC5D11E}"/>
+    <hyperlink ref="S102" r:id="rId182" xr:uid="{E1C24718-4C54-8C44-AFD4-2B023D6072A1}"/>
+    <hyperlink ref="S101" r:id="rId183" xr:uid="{88AAB544-EF77-6C4C-999F-A62189AA3507}"/>
+    <hyperlink ref="S100" r:id="rId184" xr:uid="{553E5C99-147A-444B-BD67-9B5AB355EA57}"/>
+    <hyperlink ref="S99" r:id="rId185" xr:uid="{8FE94A7E-1435-8C49-AEE0-120C31CC856A}"/>
+    <hyperlink ref="S98" r:id="rId186" xr:uid="{00D173F7-5B1B-3B41-94E1-159D9EA0D70D}"/>
+    <hyperlink ref="S97" r:id="rId187" xr:uid="{5A86AE12-EA6E-EC42-B5B8-A22CB3D199F1}"/>
+    <hyperlink ref="S96" r:id="rId188" xr:uid="{513C9663-B7AF-3540-9FDF-B3921F560AA3}"/>
+    <hyperlink ref="S95" r:id="rId189" xr:uid="{EACA8133-E481-A149-88B8-46496C10E98A}"/>
+    <hyperlink ref="S94" r:id="rId190" xr:uid="{EF6FD3A2-A1D4-5A46-89CF-4BC7C0063818}"/>
+    <hyperlink ref="S93" r:id="rId191" xr:uid="{6D0B5BF6-2394-5E4E-97BE-B8FDDC60A127}"/>
+    <hyperlink ref="S92" r:id="rId192" xr:uid="{806620CF-BA04-6F42-9141-80F0DC879D27}"/>
+    <hyperlink ref="S91" r:id="rId193" xr:uid="{36ED2CC3-6BCB-1842-AA43-2168EDB69826}"/>
+    <hyperlink ref="S90" r:id="rId194" xr:uid="{64934895-32D0-B342-849C-D8DCE6181351}"/>
+    <hyperlink ref="S89" r:id="rId195" xr:uid="{B8C928BD-20E1-5A4E-9463-41C9C3F578AB}"/>
+    <hyperlink ref="S88" r:id="rId196" xr:uid="{5D92C875-3869-C742-BFE7-EF95416A8CE1}"/>
+    <hyperlink ref="S87" r:id="rId197" xr:uid="{71662E55-A7F9-6243-95DB-0B3E7F2CA92A}"/>
+    <hyperlink ref="S86" r:id="rId198" xr:uid="{1924861E-EB21-5247-B984-B10B80482F65}"/>
+    <hyperlink ref="S85" r:id="rId199" xr:uid="{0036C767-46EF-6B45-9E21-A97BBE4820A1}"/>
+    <hyperlink ref="S84" r:id="rId200" xr:uid="{9654A737-D437-1E4C-8BC3-341DCE23D92C}"/>
+    <hyperlink ref="S83" r:id="rId201" xr:uid="{529CC930-7BA7-7741-8FCA-CCCBFD09321E}"/>
+    <hyperlink ref="S82" r:id="rId202" xr:uid="{287B138B-F47D-8D48-AF6F-F518FD799778}"/>
+    <hyperlink ref="S81" r:id="rId203" xr:uid="{C5B72238-4C07-6942-8CB5-DA314EB77272}"/>
+    <hyperlink ref="S80" r:id="rId204" xr:uid="{6EB87FCC-26D6-1743-A09B-CD68E813F0EB}"/>
+    <hyperlink ref="S79" r:id="rId205" xr:uid="{6635E8CB-48E4-114B-B757-A76557279986}"/>
+    <hyperlink ref="S78" r:id="rId206" xr:uid="{1C908C23-A809-9C4C-B5DC-F4C352AAF192}"/>
+    <hyperlink ref="S77" r:id="rId207" xr:uid="{4B5FC6D2-B0BB-344D-950D-D1CA19B02D9F}"/>
+    <hyperlink ref="S76" r:id="rId208" xr:uid="{A0DC5909-81A7-CE46-ADFF-288E518CBE58}"/>
+    <hyperlink ref="S75" r:id="rId209" xr:uid="{D2C205C0-73CC-1948-BE88-CCD60726D692}"/>
+    <hyperlink ref="S74" r:id="rId210" xr:uid="{3F9C04FD-B051-D54C-A6FA-F41FAEA34254}"/>
+    <hyperlink ref="S73" r:id="rId211" xr:uid="{668431A4-BEFD-8D4D-863C-788DD2E971F0}"/>
+    <hyperlink ref="S72" r:id="rId212" xr:uid="{670DAD1B-9532-1949-953D-4C53A2A46591}"/>
+    <hyperlink ref="S71" r:id="rId213" xr:uid="{8A392E8B-33F0-6143-AE1B-8218EE18C022}"/>
+    <hyperlink ref="S70" r:id="rId214" xr:uid="{EBEB2189-AA77-5740-AAAD-4AB6018C26AE}"/>
+    <hyperlink ref="S69" r:id="rId215" xr:uid="{803ABC13-E9A4-374B-9093-FFFDD3086B31}"/>
+    <hyperlink ref="S68" r:id="rId216" xr:uid="{1A2D5978-4F03-8448-A623-8495723C7A4E}"/>
+    <hyperlink ref="S67" r:id="rId217" xr:uid="{BC669361-EAD6-C94D-BDCD-DD2E8B8C8B67}"/>
+    <hyperlink ref="S66" r:id="rId218" xr:uid="{47569390-B9B5-9145-8548-6D6B824CB580}"/>
+    <hyperlink ref="S65" r:id="rId219" xr:uid="{FC84712A-4586-D749-BA7C-D25879F2E4C5}"/>
+    <hyperlink ref="S64" r:id="rId220" xr:uid="{FF9713F0-3609-BB44-93AE-C28050DBDDAE}"/>
+    <hyperlink ref="S63" r:id="rId221" xr:uid="{96B7CA1A-1CB7-C944-9FF6-D4641F8317D0}"/>
+    <hyperlink ref="S62" r:id="rId222" xr:uid="{A202C270-2EDC-3745-AAF5-9AB6CFF8F6C2}"/>
+    <hyperlink ref="S61" r:id="rId223" xr:uid="{F16777DB-9D03-1B43-A16F-9CABEDE33EC1}"/>
+    <hyperlink ref="S60" r:id="rId224" xr:uid="{B2911B73-8F44-3B4E-B45B-A11D1582D7D0}"/>
+    <hyperlink ref="S59" r:id="rId225" xr:uid="{EBC3D8AC-BCA6-D144-8EE8-7FC754EA0FE3}"/>
+    <hyperlink ref="S58" r:id="rId226" xr:uid="{B53E5A9B-A164-D043-A5FB-5FA55FD28917}"/>
+    <hyperlink ref="S57" r:id="rId227" xr:uid="{86B0FBD4-092C-0B4D-9A8C-C1A7C8BB39D9}"/>
+    <hyperlink ref="S56" r:id="rId228" xr:uid="{1C5EFA58-219B-174C-B571-7652FF166DD0}"/>
+    <hyperlink ref="S55" r:id="rId229" xr:uid="{6B734EE8-D0C6-594F-84C1-E2456700796C}"/>
+    <hyperlink ref="S54" r:id="rId230" xr:uid="{F7CACC78-722A-3247-A6BF-B9875C36F36D}"/>
+    <hyperlink ref="S53" r:id="rId231" xr:uid="{E5B36CBA-48B7-F740-9B1F-D7B770CEF45B}"/>
+    <hyperlink ref="S52" r:id="rId232" xr:uid="{3C6B423D-80BD-104E-9C44-9582DCB35DAB}"/>
+    <hyperlink ref="S51" r:id="rId233" xr:uid="{C6A2AA57-1F1A-7E4C-BDED-AFED1A88BA7D}"/>
+    <hyperlink ref="S50" r:id="rId234" xr:uid="{65722F46-1CF9-6749-B359-F0E5E2A0D7B1}"/>
+    <hyperlink ref="S49" r:id="rId235" xr:uid="{F129EA32-AB1B-1A47-8D1F-F0746BE5D466}"/>
+    <hyperlink ref="S48" r:id="rId236" xr:uid="{E3B15CF4-09EC-1D4D-9E62-79DDDA8942B7}"/>
+    <hyperlink ref="S47" r:id="rId237" xr:uid="{861C0AA2-B4FC-A142-8CEF-0249EA8F86FE}"/>
+    <hyperlink ref="S46" r:id="rId238" xr:uid="{3BF929F7-8EDF-CB48-B9B8-62753E9FA6EB}"/>
+    <hyperlink ref="S45" r:id="rId239" xr:uid="{40F44978-FDAF-924B-AE4B-1A91B100BA39}"/>
+    <hyperlink ref="S44" r:id="rId240" xr:uid="{8C676B2B-7883-6A46-B182-E70615098183}"/>
+    <hyperlink ref="S43" r:id="rId241" xr:uid="{E6B36536-E539-CA4A-B403-C88F5062BAE3}"/>
+    <hyperlink ref="S42" r:id="rId242" xr:uid="{9C94FC1E-6992-CD42-8D42-490B548CFC94}"/>
+    <hyperlink ref="S41" r:id="rId243" xr:uid="{220A65C2-4644-574F-B99C-7F46AF248034}"/>
+    <hyperlink ref="S40" r:id="rId244" xr:uid="{89AFA01C-49FA-594F-9BA8-06988DA363B1}"/>
+    <hyperlink ref="S39" r:id="rId245" xr:uid="{18A19F7C-D0C8-7B4E-A413-4D6BACCB24F9}"/>
+    <hyperlink ref="S38" r:id="rId246" xr:uid="{252C514F-52BD-9941-A225-15C2218F1A26}"/>
+    <hyperlink ref="S37" r:id="rId247" xr:uid="{73D5F898-F7C9-5543-9F28-49438706A4F4}"/>
+    <hyperlink ref="S36" r:id="rId248" xr:uid="{57E02099-9983-7146-96B1-DDCA63F3651E}"/>
+    <hyperlink ref="S35" r:id="rId249" xr:uid="{FFD7DA86-B760-4A47-8395-DEB807B24AFE}"/>
+    <hyperlink ref="S34" r:id="rId250" xr:uid="{58ABF4EB-A01C-2745-83E0-2CD79959AE7B}"/>
+    <hyperlink ref="S33" r:id="rId251" xr:uid="{B02427A6-B290-444E-B6FC-436A0FB99CE5}"/>
+    <hyperlink ref="S32" r:id="rId252" xr:uid="{E57F7264-2FED-1649-BC03-AC5EF67B4A10}"/>
+    <hyperlink ref="S30" r:id="rId253" xr:uid="{2FB765AD-A7FC-1F4A-9218-37A432BD84D1}"/>
+    <hyperlink ref="S29" r:id="rId254" xr:uid="{0A82BBFF-8B81-0D45-B8D1-7BD40413E2BB}"/>
+    <hyperlink ref="S28" r:id="rId255" xr:uid="{C3BDF04F-554A-4346-9CD3-47DA6A72D3FA}"/>
+    <hyperlink ref="S31" r:id="rId256" xr:uid="{739FB021-A538-1E48-8510-155CF1514637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
